--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_6%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -6627,28 +6627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1125.878143678983</v>
+        <v>1292.339209243133</v>
       </c>
       <c r="AB2" t="n">
-        <v>1540.476146419735</v>
+        <v>1768.235520068522</v>
       </c>
       <c r="AC2" t="n">
-        <v>1393.455265077286</v>
+        <v>1599.477603767321</v>
       </c>
       <c r="AD2" t="n">
-        <v>1125878.143678983</v>
+        <v>1292339.209243133</v>
       </c>
       <c r="AE2" t="n">
-        <v>1540476.146419735</v>
+        <v>1768235.520068522</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.798214321751349e-07</v>
+        <v>1.149271861248945e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.80034722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1393455.265077285</v>
+        <v>1599477.603767321</v>
       </c>
     </row>
     <row r="3">
@@ -6733,28 +6733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>804.611513001607</v>
+        <v>929.4147312559849</v>
       </c>
       <c r="AB3" t="n">
-        <v>1100.904969043504</v>
+        <v>1271.666238188544</v>
       </c>
       <c r="AC3" t="n">
-        <v>995.8361439278195</v>
+        <v>1150.300197210603</v>
       </c>
       <c r="AD3" t="n">
-        <v>804611.513001607</v>
+        <v>929414.7312559849</v>
       </c>
       <c r="AE3" t="n">
-        <v>1100904.969043504</v>
+        <v>1271666.238188544</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.764736404524056e-07</v>
+        <v>1.48172217647718e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.11631944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>995836.1439278196</v>
+        <v>1150300.197210603</v>
       </c>
     </row>
     <row r="4">
@@ -6839,28 +6839,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>718.8285759911299</v>
+        <v>833.2173100409268</v>
       </c>
       <c r="AB4" t="n">
-        <v>983.532970149683</v>
+        <v>1140.044682551399</v>
       </c>
       <c r="AC4" t="n">
-        <v>889.6659638757899</v>
+        <v>1031.240418111454</v>
       </c>
       <c r="AD4" t="n">
-        <v>718828.57599113</v>
+        <v>833217.3100409268</v>
       </c>
       <c r="AE4" t="n">
-        <v>983532.9701496831</v>
+        <v>1140044.682551399</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.525902993476198e-07</v>
+        <v>1.610401164958993e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.26736111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>889665.9638757899</v>
+        <v>1031240.418111454</v>
       </c>
     </row>
     <row r="5">
@@ -6945,28 +6945,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>677.9828105808976</v>
+        <v>782.0424012806853</v>
       </c>
       <c r="AB5" t="n">
-        <v>927.6459919274112</v>
+        <v>1070.024914708001</v>
       </c>
       <c r="AC5" t="n">
-        <v>839.112760417185</v>
+        <v>967.9032386376687</v>
       </c>
       <c r="AD5" t="n">
-        <v>677982.8105808976</v>
+        <v>782042.4012806853</v>
       </c>
       <c r="AE5" t="n">
-        <v>927645.9919274112</v>
+        <v>1070024.914708001</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.932278654735226e-07</v>
+        <v>1.679100986776484e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.39930555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>839112.760417185</v>
+        <v>967903.2386376687</v>
       </c>
     </row>
     <row r="6">
@@ -7051,28 +7051,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>648.1902941234277</v>
+        <v>762.5789386646736</v>
       </c>
       <c r="AB6" t="n">
-        <v>886.8825565572372</v>
+        <v>1043.394146489405</v>
       </c>
       <c r="AC6" t="n">
-        <v>802.2397301068995</v>
+        <v>943.8140735613372</v>
       </c>
       <c r="AD6" t="n">
-        <v>648190.2941234277</v>
+        <v>762578.9386646736</v>
       </c>
       <c r="AE6" t="n">
-        <v>886882.5565572372</v>
+        <v>1043394.146489405</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.019743819016903e-06</v>
+        <v>1.723927521862452e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.86979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>802239.7301068995</v>
+        <v>943814.0735613372</v>
       </c>
     </row>
     <row r="7">
@@ -7157,28 +7157,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>637.6521759357017</v>
+        <v>741.79701798151</v>
       </c>
       <c r="AB7" t="n">
-        <v>872.4638383438275</v>
+        <v>1014.959405777067</v>
       </c>
       <c r="AC7" t="n">
-        <v>789.1971141229798</v>
+        <v>918.0931045941754</v>
       </c>
       <c r="AD7" t="n">
-        <v>637652.1759357017</v>
+        <v>741797.0179815099</v>
       </c>
       <c r="AE7" t="n">
-        <v>872463.8383438275</v>
+        <v>1014959.405777067</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.034378944784244e-06</v>
+        <v>1.748668928111485e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.59201388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>789197.1141229798</v>
+        <v>918093.1045941755</v>
       </c>
     </row>
     <row r="8">
@@ -7263,28 +7263,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>627.1046481544133</v>
+        <v>731.0788979996294</v>
       </c>
       <c r="AB8" t="n">
-        <v>858.032245509384</v>
+        <v>1000.294401167776</v>
       </c>
       <c r="AC8" t="n">
-        <v>776.1428522537877</v>
+        <v>904.8277074423324</v>
       </c>
       <c r="AD8" t="n">
-        <v>627104.6481544133</v>
+        <v>731078.8979996294</v>
       </c>
       <c r="AE8" t="n">
-        <v>858032.245509384</v>
+        <v>1000294.401167776</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.048710630942374e-06</v>
+        <v>1.772897354645625e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.32291666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>776142.8522537877</v>
+        <v>904827.7074423324</v>
       </c>
     </row>
     <row r="9">
@@ -7369,28 +7369,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>619.8598294332779</v>
+        <v>723.834079278494</v>
       </c>
       <c r="AB9" t="n">
-        <v>848.1195649162822</v>
+        <v>990.3817205746744</v>
       </c>
       <c r="AC9" t="n">
-        <v>767.176223983957</v>
+        <v>895.8610791725017</v>
       </c>
       <c r="AD9" t="n">
-        <v>619859.8294332779</v>
+        <v>723834.079278494</v>
       </c>
       <c r="AE9" t="n">
-        <v>848119.5649162822</v>
+        <v>990381.7205746744</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.056646743798667e-06</v>
+        <v>1.786313747188961e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.17534722222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>767176.223983957</v>
+        <v>895861.0791725017</v>
       </c>
     </row>
     <row r="10">
@@ -7475,28 +7475,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>612.5484791782894</v>
+        <v>706.2789265280678</v>
       </c>
       <c r="AB10" t="n">
-        <v>838.1158529433983</v>
+        <v>966.3619861028619</v>
       </c>
       <c r="AC10" t="n">
-        <v>758.1272522414671</v>
+        <v>874.1337544467698</v>
       </c>
       <c r="AD10" t="n">
-        <v>612548.4791782894</v>
+        <v>706278.9265280678</v>
       </c>
       <c r="AE10" t="n">
-        <v>838115.8529433983</v>
+        <v>966361.9861028619</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.066123396209417e-06</v>
+        <v>1.802334498284826e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.00173611111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>758127.2522414671</v>
+        <v>874133.7544467698</v>
       </c>
     </row>
     <row r="11">
@@ -7581,28 +7581,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>596.8375192333585</v>
+        <v>700.8970204245953</v>
       </c>
       <c r="AB11" t="n">
-        <v>816.6194244281094</v>
+        <v>958.9982247391507</v>
       </c>
       <c r="AC11" t="n">
-        <v>738.6824126932504</v>
+        <v>867.4727801325073</v>
       </c>
       <c r="AD11" t="n">
-        <v>596837.5192333586</v>
+        <v>700897.0204245953</v>
       </c>
       <c r="AE11" t="n">
-        <v>816619.4244281093</v>
+        <v>958998.2247391507</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.072168846885241e-06</v>
+        <v>1.812554632604602e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.89756944444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>738682.4126932503</v>
+        <v>867472.7801325073</v>
       </c>
     </row>
     <row r="12">
@@ -7687,28 +7687,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>592.0633872686122</v>
+        <v>696.1228884598489</v>
       </c>
       <c r="AB12" t="n">
-        <v>810.0872464541058</v>
+        <v>952.4660467651472</v>
       </c>
       <c r="AC12" t="n">
-        <v>732.7736566171164</v>
+        <v>861.5640240563733</v>
       </c>
       <c r="AD12" t="n">
-        <v>592063.3872686123</v>
+        <v>696122.8884598489</v>
       </c>
       <c r="AE12" t="n">
-        <v>810087.2464541057</v>
+        <v>952466.0467651472</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.077397344767034e-06</v>
+        <v>1.821393667691976e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.80208333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>732773.6566171164</v>
+        <v>861564.0240563734</v>
       </c>
     </row>
     <row r="13">
@@ -7793,28 +7793,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>588.3361526346746</v>
+        <v>692.3956538259113</v>
       </c>
       <c r="AB13" t="n">
-        <v>804.9874795939652</v>
+        <v>947.3662799050068</v>
       </c>
       <c r="AC13" t="n">
-        <v>728.16060434854</v>
+        <v>856.9509717877968</v>
       </c>
       <c r="AD13" t="n">
-        <v>588336.1526346746</v>
+        <v>692395.6538259112</v>
       </c>
       <c r="AE13" t="n">
-        <v>804987.4795939652</v>
+        <v>947366.2799050068</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.080058276724733e-06</v>
+        <v>1.8258921051918e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.75868055555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>728160.60434854</v>
+        <v>856950.9717877968</v>
       </c>
     </row>
     <row r="14">
@@ -7899,28 +7899,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>582.3380364440175</v>
+        <v>686.3975376352541</v>
       </c>
       <c r="AB14" t="n">
-        <v>796.7805924036976</v>
+        <v>939.1593927147392</v>
       </c>
       <c r="AC14" t="n">
-        <v>720.736970953273</v>
+        <v>849.5273383925299</v>
       </c>
       <c r="AD14" t="n">
-        <v>582338.0364440174</v>
+        <v>686397.5376352541</v>
       </c>
       <c r="AE14" t="n">
-        <v>796780.5924036975</v>
+        <v>939159.3927147392</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.086920680194587e-06</v>
+        <v>1.837493338743978e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.63715277777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>720736.970953273</v>
+        <v>849527.33839253</v>
       </c>
     </row>
     <row r="15">
@@ -8005,28 +8005,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>579.1298324842014</v>
+        <v>683.1893336754381</v>
       </c>
       <c r="AB15" t="n">
-        <v>792.3909862099081</v>
+        <v>934.7697865209493</v>
       </c>
       <c r="AC15" t="n">
-        <v>716.7663026137676</v>
+        <v>845.5566700530245</v>
       </c>
       <c r="AD15" t="n">
-        <v>579129.8324842014</v>
+        <v>683189.3336754381</v>
       </c>
       <c r="AE15" t="n">
-        <v>792390.986209908</v>
+        <v>934769.7865209493</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.089558270643884e-06</v>
+        <v>1.841952316265734e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.59375</v>
       </c>
       <c r="AH15" t="n">
-        <v>716766.3026137676</v>
+        <v>845556.6700530245</v>
       </c>
     </row>
     <row r="16">
@@ -8111,28 +8111,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>574.6639071212774</v>
+        <v>678.7234083125139</v>
       </c>
       <c r="AB16" t="n">
-        <v>786.2805101056334</v>
+        <v>928.6593104166748</v>
       </c>
       <c r="AC16" t="n">
-        <v>711.2390017727779</v>
+        <v>840.0293692120349</v>
       </c>
       <c r="AD16" t="n">
-        <v>574663.9071212774</v>
+        <v>678723.408312514</v>
       </c>
       <c r="AE16" t="n">
-        <v>786280.5101056334</v>
+        <v>928659.3104166748</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.092756057294802e-06</v>
+        <v>1.847358333261136e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>711239.0017727779</v>
+        <v>840029.3692120349</v>
       </c>
     </row>
     <row r="17">
@@ -8217,28 +8217,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>573.5040139835295</v>
+        <v>677.5635151747662</v>
       </c>
       <c r="AB17" t="n">
-        <v>784.6934931436929</v>
+        <v>927.0722934547343</v>
       </c>
       <c r="AC17" t="n">
-        <v>709.8034474822928</v>
+        <v>838.5938149215498</v>
       </c>
       <c r="AD17" t="n">
-        <v>573504.0139835295</v>
+        <v>677563.5151747662</v>
       </c>
       <c r="AE17" t="n">
-        <v>784693.4931436928</v>
+        <v>927072.2934547344</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.092032470534375e-06</v>
+        <v>1.846135073941009e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.55034722222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>709803.4474822928</v>
+        <v>838593.8149215498</v>
       </c>
     </row>
     <row r="18">
@@ -8323,28 +8323,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>569.7148351751133</v>
+        <v>673.6037441657577</v>
       </c>
       <c r="AB18" t="n">
-        <v>779.5089715312467</v>
+        <v>921.6543600674412</v>
       </c>
       <c r="AC18" t="n">
-        <v>705.1137293360167</v>
+        <v>833.6929614926225</v>
       </c>
       <c r="AD18" t="n">
-        <v>569714.8351751133</v>
+        <v>673603.7441657577</v>
       </c>
       <c r="AE18" t="n">
-        <v>779508.9715312468</v>
+        <v>921654.3600674412</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.095813794895315e-06</v>
+        <v>1.852527590388127e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18.48958333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>705113.7293360167</v>
+        <v>833692.9614926225</v>
       </c>
     </row>
     <row r="19">
@@ -8429,28 +8429,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>565.2484225083284</v>
+        <v>658.8935290035351</v>
       </c>
       <c r="AB19" t="n">
-        <v>773.3978286763315</v>
+        <v>901.5271947135975</v>
       </c>
       <c r="AC19" t="n">
-        <v>699.5858253781317</v>
+        <v>815.4867045514956</v>
       </c>
       <c r="AD19" t="n">
-        <v>565248.4225083285</v>
+        <v>658893.5290035352</v>
       </c>
       <c r="AE19" t="n">
-        <v>773397.8286763316</v>
+        <v>901527.1947135975</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.098544751378216e-06</v>
+        <v>1.857144407822158e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18.44618055555556</v>
       </c>
       <c r="AH19" t="n">
-        <v>699585.8253781317</v>
+        <v>815486.7045514956</v>
       </c>
     </row>
     <row r="20">
@@ -8535,28 +8535,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>562.8439235755284</v>
+        <v>656.4890300707351</v>
       </c>
       <c r="AB20" t="n">
-        <v>770.1078871574686</v>
+        <v>898.2372531947343</v>
       </c>
       <c r="AC20" t="n">
-        <v>696.609871260367</v>
+        <v>812.5107504337309</v>
       </c>
       <c r="AD20" t="n">
-        <v>562843.9235755284</v>
+        <v>656489.0300707351</v>
       </c>
       <c r="AE20" t="n">
-        <v>770107.8871574686</v>
+        <v>898237.2531947343</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.09917497210504e-06</v>
+        <v>1.858209827230011e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18.4375</v>
       </c>
       <c r="AH20" t="n">
-        <v>696609.871260367</v>
+        <v>812510.7504337309</v>
       </c>
     </row>
     <row r="21">
@@ -8641,28 +8641,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>558.7098477869242</v>
+        <v>652.3549542821311</v>
       </c>
       <c r="AB21" t="n">
-        <v>764.4514622809482</v>
+        <v>892.5808283182141</v>
       </c>
       <c r="AC21" t="n">
-        <v>691.4932876352196</v>
+        <v>807.3941668085836</v>
       </c>
       <c r="AD21" t="n">
-        <v>558709.8477869242</v>
+        <v>652354.954282131</v>
       </c>
       <c r="AE21" t="n">
-        <v>764451.4622809483</v>
+        <v>892580.8283182142</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.101509122945126e-06</v>
+        <v>1.862155825036874e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>18.39409722222222</v>
       </c>
       <c r="AH21" t="n">
-        <v>691493.2876352196</v>
+        <v>807394.1668085835</v>
       </c>
     </row>
     <row r="22">
@@ -8747,28 +8747,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>557.37857250694</v>
+        <v>651.0236790021467</v>
       </c>
       <c r="AB22" t="n">
-        <v>762.6299527111536</v>
+        <v>890.7593187484194</v>
       </c>
       <c r="AC22" t="n">
-        <v>689.8456203822614</v>
+        <v>805.7464995556253</v>
       </c>
       <c r="AD22" t="n">
-        <v>557378.57250694</v>
+        <v>651023.6790021467</v>
       </c>
       <c r="AE22" t="n">
-        <v>762629.9527111535</v>
+        <v>890759.3187484194</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.101952611604742e-06</v>
+        <v>1.862905564620178e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>689845.6203822613</v>
+        <v>805746.4995556253</v>
       </c>
     </row>
     <row r="23">
@@ -8853,28 +8853,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>552.2712398942606</v>
+        <v>645.9163463894673</v>
       </c>
       <c r="AB23" t="n">
-        <v>755.641874910873</v>
+        <v>883.7712409481387</v>
       </c>
       <c r="AC23" t="n">
-        <v>683.5244749194107</v>
+        <v>799.4253540927748</v>
       </c>
       <c r="AD23" t="n">
-        <v>552271.2398942605</v>
+        <v>645916.3463894674</v>
       </c>
       <c r="AE23" t="n">
-        <v>755641.874910873</v>
+        <v>883771.2409481388</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.104450153003635e-06</v>
+        <v>1.867127782273521e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>18.34201388888889</v>
       </c>
       <c r="AH23" t="n">
-        <v>683524.4749194108</v>
+        <v>799425.3540927748</v>
       </c>
     </row>
     <row r="24">
@@ -8959,28 +8959,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>550.1128220566953</v>
+        <v>643.7579285519023</v>
       </c>
       <c r="AB24" t="n">
-        <v>752.6886324028419</v>
+        <v>880.8179984401078</v>
       </c>
       <c r="AC24" t="n">
-        <v>680.8530857314443</v>
+        <v>796.7539649048082</v>
       </c>
       <c r="AD24" t="n">
-        <v>550112.8220566954</v>
+        <v>643757.9285519023</v>
       </c>
       <c r="AE24" t="n">
-        <v>752688.6324028419</v>
+        <v>880817.9984401078</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.105057032222057e-06</v>
+        <v>1.868153741703306e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>680853.0857314443</v>
+        <v>796753.9649048082</v>
       </c>
     </row>
     <row r="25">
@@ -9065,28 +9065,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>547.2077960269726</v>
+        <v>640.8529025221794</v>
       </c>
       <c r="AB25" t="n">
-        <v>748.7138476282718</v>
+        <v>876.8432136655376</v>
       </c>
       <c r="AC25" t="n">
-        <v>677.2576488371137</v>
+        <v>793.1585280104778</v>
       </c>
       <c r="AD25" t="n">
-        <v>547207.7960269726</v>
+        <v>640852.9025221794</v>
       </c>
       <c r="AE25" t="n">
-        <v>748713.8476282718</v>
+        <v>876843.2136655377</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.105267105797665e-06</v>
+        <v>1.868508881505924e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>677257.6488371138</v>
+        <v>793158.5280104778</v>
       </c>
     </row>
     <row r="26">
@@ -9171,28 +9171,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>545.3159467866276</v>
+        <v>638.9610532818344</v>
       </c>
       <c r="AB26" t="n">
-        <v>746.125336035134</v>
+        <v>874.2547020723997</v>
       </c>
       <c r="AC26" t="n">
-        <v>674.916181157426</v>
+        <v>790.81706033079</v>
       </c>
       <c r="AD26" t="n">
-        <v>545315.9467866276</v>
+        <v>638961.0532818345</v>
       </c>
       <c r="AE26" t="n">
-        <v>746125.3360351339</v>
+        <v>874254.7020723997</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.104846958646449e-06</v>
+        <v>1.867798601900688e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>18.34201388888889</v>
       </c>
       <c r="AH26" t="n">
-        <v>674916.181157426</v>
+        <v>790817.06033079</v>
       </c>
     </row>
     <row r="27">
@@ -9277,28 +9277,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>543.2420673364554</v>
+        <v>636.8871738316623</v>
       </c>
       <c r="AB27" t="n">
-        <v>743.2877626783043</v>
+        <v>871.4171287155699</v>
       </c>
       <c r="AC27" t="n">
-        <v>672.3494218192129</v>
+        <v>788.2503009925769</v>
       </c>
       <c r="AD27" t="n">
-        <v>543242.0673364555</v>
+        <v>636887.1738316623</v>
       </c>
       <c r="AE27" t="n">
-        <v>743287.7626783042</v>
+        <v>871417.1287155699</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.107904696246962e-06</v>
+        <v>1.872967859027679e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>19</v>
+        <v>18.28993055555556</v>
       </c>
       <c r="AH27" t="n">
-        <v>672349.421819213</v>
+        <v>788250.3009925769</v>
       </c>
     </row>
     <row r="28">
@@ -9383,28 +9383,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>545.1356864189061</v>
+        <v>638.7807929141128</v>
       </c>
       <c r="AB28" t="n">
-        <v>745.878695847491</v>
+        <v>874.0080618847568</v>
       </c>
       <c r="AC28" t="n">
-        <v>674.6930799631301</v>
+        <v>790.5939591364939</v>
       </c>
       <c r="AD28" t="n">
-        <v>545135.6864189061</v>
+        <v>638780.7929141128</v>
       </c>
       <c r="AE28" t="n">
-        <v>745878.695847491</v>
+        <v>874008.0618847568</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.107787988704958e-06</v>
+        <v>1.872770559137336e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>19</v>
+        <v>18.28993055555556</v>
       </c>
       <c r="AH28" t="n">
-        <v>674693.0799631301</v>
+        <v>790593.959136494</v>
       </c>
     </row>
   </sheetData>
@@ -9680,28 +9680,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>898.1650877394843</v>
+        <v>1039.347696698954</v>
       </c>
       <c r="AB2" t="n">
-        <v>1228.909097292295</v>
+        <v>1422.081371407761</v>
       </c>
       <c r="AC2" t="n">
-        <v>1111.623737831468</v>
+        <v>1286.359921224344</v>
       </c>
       <c r="AD2" t="n">
-        <v>898165.0877394843</v>
+        <v>1039347.696698954</v>
       </c>
       <c r="AE2" t="n">
-        <v>1228909.097292295</v>
+        <v>1422081.371407761</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.853395910290621e-07</v>
+        <v>1.360044041564581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.69270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1111623.737831468</v>
+        <v>1286359.921224344</v>
       </c>
     </row>
     <row r="3">
@@ -9786,28 +9786,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>678.4947976267399</v>
+        <v>789.4910439092015</v>
       </c>
       <c r="AB3" t="n">
-        <v>928.3465151908069</v>
+        <v>1080.216476163257</v>
       </c>
       <c r="AC3" t="n">
-        <v>839.7464267235132</v>
+        <v>977.1221317715815</v>
       </c>
       <c r="AD3" t="n">
-        <v>678494.7976267399</v>
+        <v>789491.0439092015</v>
       </c>
       <c r="AE3" t="n">
-        <v>928346.5151908069</v>
+        <v>1080216.476163257</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.624539035428417e-07</v>
+        <v>1.666769015272495e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.77951388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>839746.4267235132</v>
+        <v>977122.1317715815</v>
       </c>
     </row>
     <row r="4">
@@ -9892,28 +9892,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>620.2557248869238</v>
+        <v>721.0761519795045</v>
       </c>
       <c r="AB4" t="n">
-        <v>848.6612465416354</v>
+        <v>986.6082027730317</v>
       </c>
       <c r="AC4" t="n">
-        <v>767.6662082752412</v>
+        <v>892.4477006136823</v>
       </c>
       <c r="AD4" t="n">
-        <v>620255.7248869238</v>
+        <v>721076.1519795045</v>
       </c>
       <c r="AE4" t="n">
-        <v>848661.2465416354</v>
+        <v>986608.2027730318</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.032599381096015e-06</v>
+        <v>1.788246322514688e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.29513888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>767666.2082752412</v>
+        <v>892447.7006136823</v>
       </c>
     </row>
     <row r="5">
@@ -9998,28 +9998,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>588.4324467648482</v>
+        <v>689.3381252034496</v>
       </c>
       <c r="AB5" t="n">
-        <v>805.1192334710661</v>
+        <v>943.1828343551117</v>
       </c>
       <c r="AC5" t="n">
-        <v>728.2797838205281</v>
+        <v>853.1667884096813</v>
       </c>
       <c r="AD5" t="n">
-        <v>588432.4467648482</v>
+        <v>689338.1252034496</v>
       </c>
       <c r="AE5" t="n">
-        <v>805119.2334710661</v>
+        <v>943182.8343551117</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.066138819416621e-06</v>
+        <v>1.846329620194347e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.66145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>728279.7838205281</v>
+        <v>853166.7884096813</v>
       </c>
     </row>
     <row r="6">
@@ -10104,28 +10104,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>574.6970875212262</v>
+        <v>675.4321737592354</v>
       </c>
       <c r="AB6" t="n">
-        <v>786.3259089926593</v>
+        <v>924.1560981018581</v>
       </c>
       <c r="AC6" t="n">
-        <v>711.280067853744</v>
+        <v>835.9559371602461</v>
       </c>
       <c r="AD6" t="n">
-        <v>574697.0875212261</v>
+        <v>675432.1737592354</v>
       </c>
       <c r="AE6" t="n">
-        <v>786325.9089926593</v>
+        <v>924156.098101858</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.087725758119732e-06</v>
+        <v>1.883713686519483e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.27083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>711280.0678537439</v>
+        <v>835955.9371602461</v>
       </c>
     </row>
     <row r="7">
@@ -10210,28 +10210,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>553.5905369540221</v>
+        <v>654.4108745380519</v>
       </c>
       <c r="AB7" t="n">
-        <v>757.4469953513174</v>
+        <v>895.3938291131653</v>
       </c>
       <c r="AC7" t="n">
-        <v>685.1573171985217</v>
+        <v>809.9386987557361</v>
       </c>
       <c r="AD7" t="n">
-        <v>553590.5369540221</v>
+        <v>654410.8745380519</v>
       </c>
       <c r="AE7" t="n">
-        <v>757446.9953513173</v>
+        <v>895393.8291131654</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.103638277812517e-06</v>
+        <v>1.911270845029846e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.99305555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>685157.3171985217</v>
+        <v>809938.6987557361</v>
       </c>
     </row>
     <row r="8">
@@ -10316,28 +10316,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>545.3070979682439</v>
+        <v>646.1274355522736</v>
       </c>
       <c r="AB8" t="n">
-        <v>746.113228691439</v>
+        <v>884.0600624532868</v>
       </c>
       <c r="AC8" t="n">
-        <v>674.9052293216207</v>
+        <v>799.6866108788349</v>
       </c>
       <c r="AD8" t="n">
-        <v>545307.0979682439</v>
+        <v>646127.4355522736</v>
       </c>
       <c r="AE8" t="n">
-        <v>746113.2286914389</v>
+        <v>884060.0624532868</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.11448004009182e-06</v>
+        <v>1.930046511450413e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.81076388888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>674905.2293216207</v>
+        <v>799686.610878835</v>
       </c>
     </row>
     <row r="9">
@@ -10422,28 +10422,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>538.9577090781328</v>
+        <v>639.7780466621625</v>
       </c>
       <c r="AB9" t="n">
-        <v>737.4257146967205</v>
+        <v>875.3725484585685</v>
       </c>
       <c r="AC9" t="n">
-        <v>667.0468394695556</v>
+        <v>791.8282210267701</v>
       </c>
       <c r="AD9" t="n">
-        <v>538957.7090781328</v>
+        <v>639778.0466621625</v>
       </c>
       <c r="AE9" t="n">
-        <v>737425.7146967206</v>
+        <v>875372.5484585685</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.122617398417266e-06</v>
+        <v>1.944138715423087e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.671875</v>
       </c>
       <c r="AH9" t="n">
-        <v>667046.8394695556</v>
+        <v>791828.2210267701</v>
       </c>
     </row>
     <row r="10">
@@ -10528,28 +10528,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>532.3411681632728</v>
+        <v>633.1615057473026</v>
       </c>
       <c r="AB10" t="n">
-        <v>728.3726715158255</v>
+        <v>866.3195052776733</v>
       </c>
       <c r="AC10" t="n">
-        <v>658.8578060238194</v>
+        <v>783.6391875810336</v>
       </c>
       <c r="AD10" t="n">
-        <v>532341.1681632728</v>
+        <v>633161.5057473027</v>
       </c>
       <c r="AE10" t="n">
-        <v>728372.6715158254</v>
+        <v>866319.5052776734</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.128629867921824e-06</v>
+        <v>1.954551056043847e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.56770833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>658857.8060238194</v>
+        <v>783639.1875810337</v>
       </c>
     </row>
     <row r="11">
@@ -10634,28 +10634,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>527.503159644673</v>
+        <v>628.1529050281106</v>
       </c>
       <c r="AB11" t="n">
-        <v>721.7530948228049</v>
+        <v>859.466516809806</v>
       </c>
       <c r="AC11" t="n">
-        <v>652.8699924397465</v>
+        <v>777.4402387143099</v>
       </c>
       <c r="AD11" t="n">
-        <v>527503.159644673</v>
+        <v>628152.9050281106</v>
       </c>
       <c r="AE11" t="n">
-        <v>721753.0948228049</v>
+        <v>859466.516809806</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.133893797046296e-06</v>
+        <v>1.963667081165636e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.48958333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>652869.9924397465</v>
+        <v>777440.2387143099</v>
       </c>
     </row>
     <row r="12">
@@ -10740,28 +10740,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>521.5074777932014</v>
+        <v>612.2373370419219</v>
       </c>
       <c r="AB12" t="n">
-        <v>713.5495384028064</v>
+        <v>837.6901345457982</v>
       </c>
       <c r="AC12" t="n">
-        <v>645.4493719307088</v>
+        <v>757.7421638102344</v>
       </c>
       <c r="AD12" t="n">
-        <v>521507.4777932013</v>
+        <v>612237.3370419219</v>
       </c>
       <c r="AE12" t="n">
-        <v>713549.5384028064</v>
+        <v>837690.1345457982</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.139230165562389e-06</v>
+        <v>1.972908556174423e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.40277777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>645449.3719307089</v>
+        <v>757742.1638102344</v>
       </c>
     </row>
     <row r="13">
@@ -10846,28 +10846,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>517.9777311810178</v>
+        <v>608.7075904297384</v>
       </c>
       <c r="AB13" t="n">
-        <v>708.7199833665866</v>
+        <v>832.8605795095784</v>
       </c>
       <c r="AC13" t="n">
-        <v>641.0807428488229</v>
+        <v>753.3735347283484</v>
       </c>
       <c r="AD13" t="n">
-        <v>517977.7311810178</v>
+        <v>608707.5904297384</v>
       </c>
       <c r="AE13" t="n">
-        <v>708719.9833665866</v>
+        <v>832860.5795095784</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.142031155371741e-06</v>
+        <v>1.97775928513831e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.35069444444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>641080.7428488228</v>
+        <v>753373.5347283485</v>
       </c>
     </row>
     <row r="14">
@@ -10952,28 +10952,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>512.6354771558806</v>
+        <v>603.3653364046011</v>
       </c>
       <c r="AB14" t="n">
-        <v>701.41047572578</v>
+        <v>825.5510718687718</v>
       </c>
       <c r="AC14" t="n">
-        <v>634.4688443582963</v>
+        <v>746.761636237822</v>
       </c>
       <c r="AD14" t="n">
-        <v>512635.4771558806</v>
+        <v>603365.3364046011</v>
       </c>
       <c r="AE14" t="n">
-        <v>701410.47572578</v>
+        <v>825551.0718687718</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.14480799871722e-06</v>
+        <v>1.982568197473199e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.30729166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>634468.8443582964</v>
+        <v>746761.636237822</v>
       </c>
     </row>
     <row r="15">
@@ -11058,28 +11058,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>508.3211144828476</v>
+        <v>599.0509737315682</v>
       </c>
       <c r="AB15" t="n">
-        <v>695.5073743802884</v>
+        <v>819.6479705232804</v>
       </c>
       <c r="AC15" t="n">
-        <v>629.1291267201638</v>
+        <v>741.4219185996894</v>
       </c>
       <c r="AD15" t="n">
-        <v>508321.1144828476</v>
+        <v>599050.9737315682</v>
       </c>
       <c r="AE15" t="n">
-        <v>695507.3743802884</v>
+        <v>819647.9705232803</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.147898746093057e-06</v>
+        <v>1.987920725985076e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.26388888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>629129.1267201637</v>
+        <v>741421.9185996894</v>
       </c>
     </row>
     <row r="16">
@@ -11164,28 +11164,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>503.1515950213419</v>
+        <v>593.8814542700626</v>
       </c>
       <c r="AB16" t="n">
-        <v>688.4342097899537</v>
+        <v>812.5748059329453</v>
       </c>
       <c r="AC16" t="n">
-        <v>622.7310150310816</v>
+        <v>735.0238069106073</v>
       </c>
       <c r="AD16" t="n">
-        <v>503151.5950213419</v>
+        <v>593881.4542700626</v>
       </c>
       <c r="AE16" t="n">
-        <v>688434.2097899537</v>
+        <v>812574.8059329453</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.150603150046914e-06</v>
+        <v>1.992604188432968e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.22048611111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>622731.0150310816</v>
+        <v>735023.8069106073</v>
       </c>
     </row>
     <row r="17">
@@ -11270,28 +11270,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>499.2439833711967</v>
+        <v>589.9738426199174</v>
       </c>
       <c r="AB17" t="n">
-        <v>683.0876431385656</v>
+        <v>807.2282392815575</v>
       </c>
       <c r="AC17" t="n">
-        <v>617.8947171969487</v>
+        <v>730.1875090764743</v>
       </c>
       <c r="AD17" t="n">
-        <v>499243.9833711967</v>
+        <v>589973.8426199174</v>
       </c>
       <c r="AE17" t="n">
-        <v>683087.6431385656</v>
+        <v>807228.2392815575</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.150844614685651e-06</v>
+        <v>1.993022354722958e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.21180555555556</v>
       </c>
       <c r="AH17" t="n">
-        <v>617894.7171969487</v>
+        <v>730187.5090764742</v>
       </c>
     </row>
     <row r="18">
@@ -11376,28 +11376,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>497.0797278838449</v>
+        <v>587.8095871325655</v>
       </c>
       <c r="AB18" t="n">
-        <v>680.1264133005575</v>
+        <v>804.2670094435492</v>
       </c>
       <c r="AC18" t="n">
-        <v>615.2161029785678</v>
+        <v>727.5088948580934</v>
       </c>
       <c r="AD18" t="n">
-        <v>497079.7278838449</v>
+        <v>587809.5871325656</v>
       </c>
       <c r="AE18" t="n">
-        <v>680126.4133005575</v>
+        <v>804267.0094435492</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.15304194289816e-06</v>
+        <v>1.99682766796187e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18.17708333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>615216.1029785678</v>
+        <v>727508.8948580935</v>
       </c>
     </row>
     <row r="19">
@@ -11482,28 +11482,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>496.9530761436646</v>
+        <v>587.6829353923853</v>
       </c>
       <c r="AB19" t="n">
-        <v>679.9531228021624</v>
+        <v>804.0937189451543</v>
       </c>
       <c r="AC19" t="n">
-        <v>615.0593510821249</v>
+        <v>727.3521429616504</v>
       </c>
       <c r="AD19" t="n">
-        <v>496953.0761436647</v>
+        <v>587682.9353923852</v>
       </c>
       <c r="AE19" t="n">
-        <v>679953.1228021624</v>
+        <v>804093.7189451542</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.152872917651044e-06</v>
+        <v>1.996534951558877e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18.17708333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>615059.3510821249</v>
+        <v>727352.1429616504</v>
       </c>
     </row>
   </sheetData>
@@ -11779,28 +11779,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>498.4647963827302</v>
+        <v>589.6185420184349</v>
       </c>
       <c r="AB2" t="n">
-        <v>682.021525125642</v>
+        <v>806.742101323853</v>
       </c>
       <c r="AC2" t="n">
-        <v>616.9303479908724</v>
+        <v>729.7477674431543</v>
       </c>
       <c r="AD2" t="n">
-        <v>498464.7963827302</v>
+        <v>589618.542018435</v>
       </c>
       <c r="AE2" t="n">
-        <v>682021.5251256421</v>
+        <v>806742.101323853</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.11046738171923e-06</v>
+        <v>2.101243247377221e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.05902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>616930.3479908725</v>
+        <v>729747.7674431544</v>
       </c>
     </row>
     <row r="3">
@@ -11885,28 +11885,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>429.0766253850072</v>
+        <v>511.1150054079966</v>
       </c>
       <c r="AB3" t="n">
-        <v>587.0815683765011</v>
+        <v>699.3300992018457</v>
       </c>
       <c r="AC3" t="n">
-        <v>531.0513274648033</v>
+        <v>632.5870160499798</v>
       </c>
       <c r="AD3" t="n">
-        <v>429076.6253850072</v>
+        <v>511115.0054079966</v>
       </c>
       <c r="AE3" t="n">
-        <v>587081.5683765011</v>
+        <v>699330.0992018457</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.226434082619885e-06</v>
+        <v>2.320677200323102e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.07118055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>531051.3274648034</v>
+        <v>632587.0160499797</v>
       </c>
     </row>
     <row r="4">
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>400.4024756489137</v>
+        <v>482.3555148173313</v>
       </c>
       <c r="AB4" t="n">
-        <v>547.8483316933716</v>
+        <v>659.9800953965187</v>
       </c>
       <c r="AC4" t="n">
-        <v>495.5624558265183</v>
+        <v>596.9925213797558</v>
       </c>
       <c r="AD4" t="n">
-        <v>400402.4756489136</v>
+        <v>482355.5148173313</v>
       </c>
       <c r="AE4" t="n">
-        <v>547848.3316933716</v>
+        <v>659980.0953965187</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.267227201849343e-06</v>
+        <v>2.397866560165124e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.45486111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>495562.4558265182</v>
+        <v>596992.5213797558</v>
       </c>
     </row>
     <row r="5">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>386.7082731222974</v>
+        <v>468.6613122907152</v>
       </c>
       <c r="AB5" t="n">
-        <v>529.1113196508784</v>
+        <v>641.2430833540254</v>
       </c>
       <c r="AC5" t="n">
-        <v>478.6136779157989</v>
+        <v>580.0437434690364</v>
       </c>
       <c r="AD5" t="n">
-        <v>386708.2731222974</v>
+        <v>468661.3122907152</v>
       </c>
       <c r="AE5" t="n">
-        <v>529111.3196508784</v>
+        <v>641243.0833540254</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.286680723701173e-06</v>
+        <v>2.434676809706696e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.17708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>478613.6779157988</v>
+        <v>580043.7434690364</v>
       </c>
     </row>
     <row r="6">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>377.8499936659979</v>
+        <v>459.8030328344157</v>
       </c>
       <c r="AB6" t="n">
-        <v>516.991030899061</v>
+        <v>629.122794602208</v>
       </c>
       <c r="AC6" t="n">
-        <v>467.650132511523</v>
+        <v>569.0801980647606</v>
       </c>
       <c r="AD6" t="n">
-        <v>377849.9936659979</v>
+        <v>459803.0328344157</v>
       </c>
       <c r="AE6" t="n">
-        <v>516991.030899061</v>
+        <v>629122.7946022081</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.298562999513716e-06</v>
+        <v>2.457160632487629e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.01215277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>467650.132511523</v>
+        <v>569080.1980647605</v>
       </c>
     </row>
     <row r="7">
@@ -12309,28 +12309,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>368.6539035462862</v>
+        <v>459.6368779642966</v>
       </c>
       <c r="AB7" t="n">
-        <v>504.4085346944083</v>
+        <v>628.8954541786755</v>
       </c>
       <c r="AC7" t="n">
-        <v>456.2684920849979</v>
+        <v>568.8745546921757</v>
       </c>
       <c r="AD7" t="n">
-        <v>368653.9035462862</v>
+        <v>459636.8779642966</v>
       </c>
       <c r="AE7" t="n">
-        <v>504408.5346944084</v>
+        <v>628895.4541786755</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.300260467486937e-06</v>
+        <v>2.46037260717062e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>18</v>
+        <v>17.98611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>456268.4920849979</v>
+        <v>568874.5546921757</v>
       </c>
     </row>
   </sheetData>
@@ -12606,28 +12606,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>617.9211243057026</v>
+        <v>731.7953527988005</v>
       </c>
       <c r="AB2" t="n">
-        <v>845.4669430310998</v>
+        <v>1001.274686231757</v>
       </c>
       <c r="AC2" t="n">
-        <v>764.7767646085182</v>
+        <v>905.7144354756458</v>
       </c>
       <c r="AD2" t="n">
-        <v>617921.1243057026</v>
+        <v>731795.3527988006</v>
       </c>
       <c r="AE2" t="n">
-        <v>845466.9430310999</v>
+        <v>1001274.686231757</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.809212313757701e-07</v>
+        <v>1.787025452213959e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.8125</v>
       </c>
       <c r="AH2" t="n">
-        <v>764776.7646085182</v>
+        <v>905714.4354756458</v>
       </c>
     </row>
     <row r="3">
@@ -12712,28 +12712,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>507.5828836593772</v>
+        <v>611.8751405189311</v>
       </c>
       <c r="AB3" t="n">
-        <v>694.4972943991709</v>
+        <v>837.1945612840592</v>
       </c>
       <c r="AC3" t="n">
-        <v>628.2154473547879</v>
+        <v>757.2938873650544</v>
       </c>
       <c r="AD3" t="n">
-        <v>507582.8836593772</v>
+        <v>611875.1405189311</v>
       </c>
       <c r="AE3" t="n">
-        <v>694497.2943991709</v>
+        <v>837194.5612840592</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.123542100465302e-06</v>
+        <v>2.046849702039208e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.91319444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>628215.4473547878</v>
+        <v>757293.8873650543</v>
       </c>
     </row>
     <row r="4">
@@ -12818,28 +12818,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>481.7631485180686</v>
+        <v>567.2329150373718</v>
       </c>
       <c r="AB4" t="n">
-        <v>659.1695936925108</v>
+        <v>776.1130989042003</v>
       </c>
       <c r="AC4" t="n">
-        <v>596.259372820832</v>
+        <v>702.0419540263584</v>
       </c>
       <c r="AD4" t="n">
-        <v>481763.1485180687</v>
+        <v>567232.9150373718</v>
       </c>
       <c r="AE4" t="n">
-        <v>659169.5936925109</v>
+        <v>776113.0989042004</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.174166967064225e-06</v>
+        <v>2.139077214538176e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.05381944444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>596259.3728208321</v>
+        <v>702041.9540263584</v>
       </c>
     </row>
     <row r="5">
@@ -12924,28 +12924,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>457.0759924490312</v>
+        <v>551.9569593841842</v>
       </c>
       <c r="AB5" t="n">
-        <v>625.3915376383942</v>
+        <v>755.211862451909</v>
       </c>
       <c r="AC5" t="n">
-        <v>565.705047028721</v>
+        <v>683.1355022460042</v>
       </c>
       <c r="AD5" t="n">
-        <v>457075.9924490312</v>
+        <v>551956.9593841842</v>
       </c>
       <c r="AE5" t="n">
-        <v>625391.5376383942</v>
+        <v>755211.862451909</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.200665115161828e-06</v>
+        <v>2.187351085642524e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.63715277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>565705.047028721</v>
+        <v>683135.5022460042</v>
       </c>
     </row>
     <row r="6">
@@ -13030,28 +13030,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>446.7668738660088</v>
+        <v>532.1512995307404</v>
       </c>
       <c r="AB6" t="n">
-        <v>611.2861467868897</v>
+        <v>728.1128848763816</v>
       </c>
       <c r="AC6" t="n">
-        <v>552.9458548830437</v>
+        <v>658.6228130566312</v>
       </c>
       <c r="AD6" t="n">
-        <v>446766.8738660088</v>
+        <v>532151.2995307404</v>
       </c>
       <c r="AE6" t="n">
-        <v>611286.1467868898</v>
+        <v>728112.8848763816</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.216388724441535e-06</v>
+        <v>2.215996086978761e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.39409722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>552945.8548830437</v>
+        <v>658622.8130566312</v>
       </c>
     </row>
     <row r="7">
@@ -13136,28 +13136,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>437.4851826035996</v>
+        <v>522.8696082683311</v>
       </c>
       <c r="AB7" t="n">
-        <v>598.5865273223424</v>
+        <v>715.4132654118345</v>
       </c>
       <c r="AC7" t="n">
-        <v>541.458269276165</v>
+        <v>647.1352274497526</v>
       </c>
       <c r="AD7" t="n">
-        <v>437485.1826035996</v>
+        <v>522869.6082683312</v>
       </c>
       <c r="AE7" t="n">
-        <v>598586.5273223424</v>
+        <v>715413.2654118345</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.226544629451706e-06</v>
+        <v>2.234497940300855e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.24652777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>541458.2692761649</v>
+        <v>647135.2274497526</v>
       </c>
     </row>
     <row r="8">
@@ -13242,28 +13242,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>428.287622908344</v>
+        <v>513.6720485730756</v>
       </c>
       <c r="AB8" t="n">
-        <v>586.0020203795978</v>
+        <v>702.8287584690896</v>
       </c>
       <c r="AC8" t="n">
-        <v>530.0748100135693</v>
+        <v>635.7517681871569</v>
       </c>
       <c r="AD8" t="n">
-        <v>428287.622908344</v>
+        <v>513672.0485730756</v>
       </c>
       <c r="AE8" t="n">
-        <v>586002.0203795978</v>
+        <v>702828.7584690896</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.236803640096497e-06</v>
+        <v>2.253187629697286e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.09027777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>530074.8100135693</v>
+        <v>635751.7681871569</v>
       </c>
     </row>
     <row r="9">
@@ -13348,28 +13348,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>422.068699323243</v>
+        <v>507.4531249879747</v>
       </c>
       <c r="AB9" t="n">
-        <v>577.4930147709174</v>
+        <v>694.3197528604092</v>
       </c>
       <c r="AC9" t="n">
-        <v>522.377891957717</v>
+        <v>628.0548501313045</v>
       </c>
       <c r="AD9" t="n">
-        <v>422068.6993232431</v>
+        <v>507453.1249879746</v>
       </c>
       <c r="AE9" t="n">
-        <v>577493.0147709174</v>
+        <v>694319.7528604092</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.241520722880409e-06</v>
+        <v>2.261781130098157e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>522377.891957717</v>
+        <v>628054.8501313046</v>
       </c>
     </row>
     <row r="10">
@@ -13454,28 +13454,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>409.7424974828537</v>
+        <v>504.538123563435</v>
       </c>
       <c r="AB10" t="n">
-        <v>560.6277616192506</v>
+        <v>690.3313193105676</v>
       </c>
       <c r="AC10" t="n">
-        <v>507.1222348963137</v>
+        <v>624.4470670816581</v>
       </c>
       <c r="AD10" t="n">
-        <v>409742.4974828537</v>
+        <v>504538.123563435</v>
       </c>
       <c r="AE10" t="n">
-        <v>560627.7616192505</v>
+        <v>690331.3193105676</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.243299295077622e-06</v>
+        <v>2.265021302380453e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>18</v>
+        <v>17.99479166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>507122.2348963137</v>
+        <v>624447.0670816582</v>
       </c>
     </row>
     <row r="11">
@@ -13560,28 +13560,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>420.8656580363115</v>
+        <v>506.2500837010429</v>
       </c>
       <c r="AB11" t="n">
-        <v>575.8469606077017</v>
+        <v>692.6736986971938</v>
       </c>
       <c r="AC11" t="n">
-        <v>520.8889348935871</v>
+        <v>626.5658930671748</v>
       </c>
       <c r="AD11" t="n">
-        <v>420865.6580363114</v>
+        <v>506250.0837010429</v>
       </c>
       <c r="AE11" t="n">
-        <v>575846.9606077017</v>
+        <v>692673.6986971938</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.24314463662569e-06</v>
+        <v>2.264739548268949e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.00347222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>520888.9348935871</v>
+        <v>626565.8930671748</v>
       </c>
     </row>
   </sheetData>
@@ -13857,28 +13857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>406.1242085450513</v>
+        <v>502.7826764736486</v>
       </c>
       <c r="AB2" t="n">
-        <v>555.6770590669075</v>
+        <v>687.929439157462</v>
       </c>
       <c r="AC2" t="n">
-        <v>502.6440204472115</v>
+        <v>622.274418999305</v>
       </c>
       <c r="AD2" t="n">
-        <v>406124.2085450513</v>
+        <v>502782.6764736486</v>
       </c>
       <c r="AE2" t="n">
-        <v>555677.0590669075</v>
+        <v>687929.439157462</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.215913002999942e-06</v>
+        <v>2.382797718141675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.97395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>502644.0204472115</v>
+        <v>622274.418999305</v>
       </c>
     </row>
     <row r="3">
@@ -13963,28 +13963,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>360.7321359985861</v>
+        <v>448.6732948146877</v>
       </c>
       <c r="AB3" t="n">
-        <v>493.5696228519262</v>
+        <v>613.8945960342286</v>
       </c>
       <c r="AC3" t="n">
-        <v>446.464030776254</v>
+        <v>555.3053573951979</v>
       </c>
       <c r="AD3" t="n">
-        <v>360732.1359985861</v>
+        <v>448673.2948146877</v>
       </c>
       <c r="AE3" t="n">
-        <v>493569.6228519263</v>
+        <v>613894.5960342286</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.311168989334245e-06</v>
+        <v>2.569468759833563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.52430555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>446464.030776254</v>
+        <v>555305.357395198</v>
       </c>
     </row>
     <row r="4">
@@ -14069,28 +14069,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>344.0431205675393</v>
+        <v>423.1817189251246</v>
       </c>
       <c r="AB4" t="n">
-        <v>470.7349756717704</v>
+        <v>579.0158972931711</v>
       </c>
       <c r="AC4" t="n">
-        <v>425.8086902743436</v>
+        <v>523.7554327094258</v>
       </c>
       <c r="AD4" t="n">
-        <v>344043.1205675393</v>
+        <v>423181.7189251246</v>
       </c>
       <c r="AE4" t="n">
-        <v>470734.9756717704</v>
+        <v>579015.897293171</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.342650477179748e-06</v>
+        <v>2.631162332660642e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.09027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>425808.6902743436</v>
+        <v>523755.4327094258</v>
       </c>
     </row>
     <row r="5">
@@ -14175,28 +14175,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>344.8923413503911</v>
+        <v>424.0309397079764</v>
       </c>
       <c r="AB5" t="n">
-        <v>471.896917011845</v>
+        <v>580.1778386332455</v>
       </c>
       <c r="AC5" t="n">
-        <v>426.8597375637164</v>
+        <v>524.8064799987985</v>
       </c>
       <c r="AD5" t="n">
-        <v>344892.341350391</v>
+        <v>424030.9397079764</v>
       </c>
       <c r="AE5" t="n">
-        <v>471896.917011845</v>
+        <v>580177.8386332456</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.344693275946611e-06</v>
+        <v>2.635165560052977e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.06423611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>426859.7375637164</v>
+        <v>524806.4799987986</v>
       </c>
     </row>
   </sheetData>
@@ -14472,28 +14472,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>955.3213737950051</v>
+        <v>1097.610672454638</v>
       </c>
       <c r="AB2" t="n">
-        <v>1307.112849430837</v>
+        <v>1501.79934521777</v>
       </c>
       <c r="AC2" t="n">
-        <v>1182.363833625563</v>
+        <v>1358.469723498804</v>
       </c>
       <c r="AD2" t="n">
-        <v>955321.3737950051</v>
+        <v>1097610.672454638</v>
       </c>
       <c r="AE2" t="n">
-        <v>1307112.849430837</v>
+        <v>1501799.345217769</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.567244101435901e-07</v>
+        <v>1.301930126749135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.44791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1182363.833625563</v>
+        <v>1358469.723498804</v>
       </c>
     </row>
     <row r="3">
@@ -14578,28 +14578,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>713.3165125895732</v>
+        <v>825.1640326337298</v>
       </c>
       <c r="AB3" t="n">
-        <v>975.9911218285985</v>
+        <v>1129.025833117347</v>
       </c>
       <c r="AC3" t="n">
-        <v>882.843898973419</v>
+        <v>1021.273192202336</v>
       </c>
       <c r="AD3" t="n">
-        <v>713316.5125895733</v>
+        <v>825164.0326337297</v>
       </c>
       <c r="AE3" t="n">
-        <v>975991.1218285984</v>
+        <v>1129025.833117347</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.410059356951123e-07</v>
+        <v>1.618983028311134e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.07465277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>882843.898973419</v>
+        <v>1021273.192202336</v>
       </c>
     </row>
     <row r="4">
@@ -14684,28 +14684,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>643.2365769604664</v>
+        <v>755.0840074960718</v>
       </c>
       <c r="AB4" t="n">
-        <v>880.1046621922962</v>
+        <v>1033.139251011497</v>
       </c>
       <c r="AC4" t="n">
-        <v>796.1087084673143</v>
+        <v>934.5378909150049</v>
       </c>
       <c r="AD4" t="n">
-        <v>643236.5769604665</v>
+        <v>755084.0074960717</v>
       </c>
       <c r="AE4" t="n">
-        <v>880104.6621922962</v>
+        <v>1033139.251011497</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.009516260023642e-06</v>
+        <v>1.736853753823666e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.57291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>796108.7084673143</v>
+        <v>934537.8909150049</v>
       </c>
     </row>
     <row r="5">
@@ -14790,28 +14790,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>607.3036873834301</v>
+        <v>719.0657770644638</v>
       </c>
       <c r="AB5" t="n">
-        <v>830.9396974257879</v>
+        <v>983.857519122791</v>
       </c>
       <c r="AC5" t="n">
-        <v>751.63597893466</v>
+        <v>889.9595383504119</v>
       </c>
       <c r="AD5" t="n">
-        <v>607303.6873834301</v>
+        <v>719065.7770644637</v>
       </c>
       <c r="AE5" t="n">
-        <v>830939.6974257879</v>
+        <v>983857.519122791</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.047994989161007e-06</v>
+        <v>1.803055684184878e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.81770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>751635.97893466</v>
+        <v>889959.5383504119</v>
       </c>
     </row>
     <row r="6">
@@ -14896,28 +14896,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>591.9298918051645</v>
+        <v>693.5163645047334</v>
       </c>
       <c r="AB6" t="n">
-        <v>809.9045920716126</v>
+        <v>948.8996856980368</v>
       </c>
       <c r="AC6" t="n">
-        <v>732.6084345125313</v>
+        <v>858.3380314840889</v>
       </c>
       <c r="AD6" t="n">
-        <v>591929.8918051645</v>
+        <v>693516.3645047334</v>
       </c>
       <c r="AE6" t="n">
-        <v>809904.5920716126</v>
+        <v>948899.6856980368</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.071398096807987e-06</v>
+        <v>1.843320291083674e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.38368055555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>732608.4345125313</v>
+        <v>858338.0314840889</v>
       </c>
     </row>
     <row r="7">
@@ -15002,28 +15002,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>581.997974744455</v>
+        <v>673.5794226631508</v>
       </c>
       <c r="AB7" t="n">
-        <v>796.315304983893</v>
+        <v>921.6210823145855</v>
       </c>
       <c r="AC7" t="n">
-        <v>720.3160899117795</v>
+        <v>833.6628597217938</v>
       </c>
       <c r="AD7" t="n">
-        <v>581997.974744455</v>
+        <v>673579.4226631508</v>
       </c>
       <c r="AE7" t="n">
-        <v>796315.3049838931</v>
+        <v>921621.0823145855</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.086330140950845e-06</v>
+        <v>1.869010592417876e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.12326388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>720316.0899117795</v>
+        <v>833662.8597217938</v>
       </c>
     </row>
     <row r="8">
@@ -15108,28 +15108,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>563.2900942104454</v>
+        <v>664.9618182560348</v>
       </c>
       <c r="AB8" t="n">
-        <v>770.7183575038212</v>
+        <v>909.8300957828947</v>
       </c>
       <c r="AC8" t="n">
-        <v>697.1620791736642</v>
+        <v>822.997188395934</v>
       </c>
       <c r="AD8" t="n">
-        <v>563290.0942104454</v>
+        <v>664961.8182560347</v>
       </c>
       <c r="AE8" t="n">
-        <v>770718.3575038211</v>
+        <v>909830.0957828946</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.097648821847594e-06</v>
+        <v>1.888484170192039e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.92361111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>697162.0791736642</v>
+        <v>822997.1883959341</v>
       </c>
     </row>
     <row r="9">
@@ -15214,28 +15214,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>556.1154744472057</v>
+        <v>657.7871984927949</v>
       </c>
       <c r="AB9" t="n">
-        <v>760.9017262218714</v>
+        <v>900.0134645009449</v>
       </c>
       <c r="AC9" t="n">
-        <v>688.2823334035353</v>
+        <v>814.117442625805</v>
       </c>
       <c r="AD9" t="n">
-        <v>556115.4744472057</v>
+        <v>657787.1984927949</v>
       </c>
       <c r="AE9" t="n">
-        <v>760901.7262218714</v>
+        <v>900013.4645009449</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.10600023756211e-06</v>
+        <v>1.902852623983123e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.78472222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>688282.3334035353</v>
+        <v>814117.442625805</v>
       </c>
     </row>
     <row r="10">
@@ -15320,28 +15320,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>551.4838772539771</v>
+        <v>653.1556012995662</v>
       </c>
       <c r="AB10" t="n">
-        <v>754.5645706104491</v>
+        <v>893.6763088895225</v>
       </c>
       <c r="AC10" t="n">
-        <v>682.5499870294133</v>
+        <v>808.3850962516831</v>
       </c>
       <c r="AD10" t="n">
-        <v>551483.8772539771</v>
+        <v>653155.6012995662</v>
       </c>
       <c r="AE10" t="n">
-        <v>754564.5706104491</v>
+        <v>893676.3088895225</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.110475064893383e-06</v>
+        <v>1.910551480312443e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.70659722222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>682549.9870294132</v>
+        <v>808385.0962516831</v>
       </c>
     </row>
     <row r="11">
@@ -15426,28 +15426,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>546.1345786901783</v>
+        <v>647.8063027357673</v>
       </c>
       <c r="AB11" t="n">
-        <v>747.2454243210623</v>
+        <v>886.3571626001359</v>
       </c>
       <c r="AC11" t="n">
-        <v>675.9293697893993</v>
+        <v>801.7644790116691</v>
       </c>
       <c r="AD11" t="n">
-        <v>546134.5786901782</v>
+        <v>647806.3027357673</v>
       </c>
       <c r="AE11" t="n">
-        <v>747245.4243210623</v>
+        <v>886357.1626001359</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.116002792773191e-06</v>
+        <v>1.920061832248662e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.61111111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>675929.3697893993</v>
+        <v>801764.4790116691</v>
       </c>
     </row>
     <row r="12">
@@ -15532,28 +15532,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>540.3587876468021</v>
+        <v>642.0305116923912</v>
       </c>
       <c r="AB12" t="n">
-        <v>739.3427322055978</v>
+        <v>878.4544704846714</v>
       </c>
       <c r="AC12" t="n">
-        <v>668.7808995179367</v>
+        <v>794.6160087402064</v>
       </c>
       <c r="AD12" t="n">
-        <v>540358.787646802</v>
+        <v>642030.5116923912</v>
       </c>
       <c r="AE12" t="n">
-        <v>739342.7322055978</v>
+        <v>878454.4704846714</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.122033041369345e-06</v>
+        <v>1.930436761633628e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.515625</v>
       </c>
       <c r="AH12" t="n">
-        <v>668780.8995179367</v>
+        <v>794616.0087402065</v>
       </c>
     </row>
     <row r="13">
@@ -15638,28 +15638,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>534.8115133564982</v>
+        <v>626.3076204206224</v>
       </c>
       <c r="AB13" t="n">
-        <v>731.7527067931344</v>
+        <v>856.9417170016293</v>
       </c>
       <c r="AC13" t="n">
-        <v>661.9152554781713</v>
+        <v>775.1564022562467</v>
       </c>
       <c r="AD13" t="n">
-        <v>534811.5133564982</v>
+        <v>626307.6204206224</v>
       </c>
       <c r="AE13" t="n">
-        <v>731752.7067931344</v>
+        <v>856941.7170016293</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.126172854889721e-06</v>
+        <v>1.937559232997116e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.44618055555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>661915.2554781713</v>
+        <v>775156.4022562467</v>
       </c>
     </row>
     <row r="14">
@@ -15744,28 +15744,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>531.9783353472262</v>
+        <v>623.4744424113504</v>
       </c>
       <c r="AB14" t="n">
-        <v>727.8762276498562</v>
+        <v>853.0652378583511</v>
       </c>
       <c r="AC14" t="n">
-        <v>658.4087420636549</v>
+        <v>771.6498888417303</v>
       </c>
       <c r="AD14" t="n">
-        <v>531978.3353472262</v>
+        <v>623474.4424113504</v>
       </c>
       <c r="AE14" t="n">
-        <v>727876.2276498562</v>
+        <v>853065.2378583511</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.127919712617972e-06</v>
+        <v>1.940564668890381e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.42013888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>658408.7420636549</v>
+        <v>771649.8888417303</v>
       </c>
     </row>
     <row r="15">
@@ -15850,28 +15850,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>528.0132908279514</v>
+        <v>619.5093978920756</v>
       </c>
       <c r="AB15" t="n">
-        <v>722.4510788131657</v>
+        <v>847.6400890216606</v>
       </c>
       <c r="AC15" t="n">
-        <v>653.5013618176939</v>
+        <v>766.7425085957693</v>
       </c>
       <c r="AD15" t="n">
-        <v>528013.2908279514</v>
+        <v>619509.3978920756</v>
       </c>
       <c r="AE15" t="n">
-        <v>722451.0788131658</v>
+        <v>847640.0890216606</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.130671611778915e-06</v>
+        <v>1.945299259681138e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.36805555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>653501.3618176939</v>
+        <v>766742.5085957693</v>
       </c>
     </row>
     <row r="16">
@@ -15956,28 +15956,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>523.8028778425225</v>
+        <v>615.2989849066466</v>
       </c>
       <c r="AB16" t="n">
-        <v>716.6902060161907</v>
+        <v>841.8792162246856</v>
       </c>
       <c r="AC16" t="n">
-        <v>648.2902986350265</v>
+        <v>761.5314454131018</v>
       </c>
       <c r="AD16" t="n">
-        <v>523802.8778425225</v>
+        <v>615298.9849066467</v>
       </c>
       <c r="AE16" t="n">
-        <v>716690.2060161907</v>
+        <v>841879.2162246855</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.133902102098283e-06</v>
+        <v>1.950857257565942e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.31597222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>648290.2986350264</v>
+        <v>761531.4454131018</v>
       </c>
     </row>
     <row r="17">
@@ -16062,28 +16062,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>518.0193673802486</v>
+        <v>609.5154744443728</v>
       </c>
       <c r="AB17" t="n">
-        <v>708.7769518512338</v>
+        <v>833.9659620597286</v>
       </c>
       <c r="AC17" t="n">
-        <v>641.1322743412509</v>
+        <v>754.3734211193263</v>
       </c>
       <c r="AD17" t="n">
-        <v>518019.3673802486</v>
+        <v>609515.4744443728</v>
       </c>
       <c r="AE17" t="n">
-        <v>708776.9518512337</v>
+        <v>833965.9620597286</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.136989015070124e-06</v>
+        <v>1.956168233322532e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.27256944444444</v>
       </c>
       <c r="AH17" t="n">
-        <v>641132.2743412509</v>
+        <v>754373.4211193263</v>
       </c>
     </row>
     <row r="18">
@@ -16168,28 +16168,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>513.296517541677</v>
+        <v>604.7926246058012</v>
       </c>
       <c r="AB18" t="n">
-        <v>702.3149403446702</v>
+        <v>827.5039505531651</v>
       </c>
       <c r="AC18" t="n">
-        <v>635.2869881433837</v>
+        <v>748.5281349214592</v>
       </c>
       <c r="AD18" t="n">
-        <v>513296.517541677</v>
+        <v>604792.6246058012</v>
       </c>
       <c r="AE18" t="n">
-        <v>702314.9403446702</v>
+        <v>827503.9505531651</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.136510423911699e-06</v>
+        <v>1.955344826228487e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18.28125</v>
       </c>
       <c r="AH18" t="n">
-        <v>635286.9881433838</v>
+        <v>748528.1349214592</v>
       </c>
     </row>
     <row r="19">
@@ -16274,28 +16274,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>512.0252067057583</v>
+        <v>603.5213137698826</v>
       </c>
       <c r="AB19" t="n">
-        <v>700.5754767726905</v>
+        <v>825.7644869811854</v>
       </c>
       <c r="AC19" t="n">
-        <v>633.7135365333614</v>
+        <v>746.9546833114368</v>
       </c>
       <c r="AD19" t="n">
-        <v>512025.2067057583</v>
+        <v>603521.3137698825</v>
       </c>
       <c r="AE19" t="n">
-        <v>700575.4767726905</v>
+        <v>825764.4869811854</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.139286252630564e-06</v>
+        <v>1.960120587373948e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>633713.5365333614</v>
+        <v>746954.6833114368</v>
       </c>
     </row>
     <row r="20">
@@ -16380,28 +16380,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>507.5772129366864</v>
+        <v>599.0733200008107</v>
       </c>
       <c r="AB20" t="n">
-        <v>694.4895354662107</v>
+        <v>819.6785456747054</v>
       </c>
       <c r="AC20" t="n">
-        <v>628.2084289234997</v>
+        <v>741.449575701575</v>
       </c>
       <c r="AD20" t="n">
-        <v>507577.2129366864</v>
+        <v>599073.3200008107</v>
       </c>
       <c r="AE20" t="n">
-        <v>694489.5354662107</v>
+        <v>819678.5456747054</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.139166604840958e-06</v>
+        <v>1.959914735600437e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18.23784722222222</v>
       </c>
       <c r="AH20" t="n">
-        <v>628208.4289234997</v>
+        <v>741449.575701575</v>
       </c>
     </row>
     <row r="21">
@@ -16486,28 +16486,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>506.7597763079509</v>
+        <v>598.2558833720751</v>
       </c>
       <c r="AB21" t="n">
-        <v>693.3710826080159</v>
+        <v>818.5600928165107</v>
       </c>
       <c r="AC21" t="n">
-        <v>627.1967196363324</v>
+        <v>740.4378664144078</v>
       </c>
       <c r="AD21" t="n">
-        <v>506759.7763079508</v>
+        <v>598255.8833720752</v>
       </c>
       <c r="AE21" t="n">
-        <v>693371.0826080159</v>
+        <v>818560.0928165107</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.141942433559822e-06</v>
+        <v>1.964690496745897e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>18.19444444444444</v>
       </c>
       <c r="AH21" t="n">
-        <v>627196.7196363325</v>
+        <v>740437.8664144079</v>
       </c>
     </row>
   </sheetData>
@@ -16783,28 +16783,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>365.1058984832104</v>
+        <v>451.1100611118309</v>
       </c>
       <c r="AB2" t="n">
-        <v>499.5539976401718</v>
+        <v>617.228687184522</v>
       </c>
       <c r="AC2" t="n">
-        <v>451.8772652338322</v>
+        <v>558.3212475655337</v>
       </c>
       <c r="AD2" t="n">
-        <v>365105.8984832104</v>
+        <v>451110.0611118309</v>
       </c>
       <c r="AE2" t="n">
-        <v>499553.9976401718</v>
+        <v>617228.6871845219</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.282374312207427e-06</v>
+        <v>2.570724971659768e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.38368055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>451877.2652338322</v>
+        <v>558321.2475655336</v>
       </c>
     </row>
     <row r="3">
@@ -16889,28 +16889,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>325.3011236527646</v>
+        <v>402.7731516530355</v>
       </c>
       <c r="AB3" t="n">
-        <v>445.0913486544271</v>
+        <v>551.0919951890551</v>
       </c>
       <c r="AC3" t="n">
-        <v>402.6124550284791</v>
+        <v>498.4965486306841</v>
       </c>
       <c r="AD3" t="n">
-        <v>325301.1236527646</v>
+        <v>402773.1516530355</v>
       </c>
       <c r="AE3" t="n">
-        <v>445091.3486544271</v>
+        <v>551091.9951890551</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.365309527557316e-06</v>
+        <v>2.736981911696989e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.21180555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>402612.4550284791</v>
+        <v>498496.548630684</v>
       </c>
     </row>
     <row r="4">
@@ -16995,28 +16995,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>324.4449505578036</v>
+        <v>401.9169785580746</v>
       </c>
       <c r="AB4" t="n">
-        <v>443.9198948542103</v>
+        <v>549.9205413888383</v>
       </c>
       <c r="AC4" t="n">
-        <v>401.5528031348093</v>
+        <v>497.4368967370142</v>
       </c>
       <c r="AD4" t="n">
-        <v>324444.9505578036</v>
+        <v>401916.9785580746</v>
       </c>
       <c r="AE4" t="n">
-        <v>443919.8948542103</v>
+        <v>549920.5413888383</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.368946534584055e-06</v>
+        <v>2.744272875572929e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.15972222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>401552.8031348092</v>
+        <v>497436.8967370142</v>
       </c>
     </row>
   </sheetData>
@@ -17292,28 +17292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>751.0004707948974</v>
+        <v>878.5004026164202</v>
       </c>
       <c r="AB2" t="n">
-        <v>1027.551975944025</v>
+        <v>1202.003007562239</v>
       </c>
       <c r="AC2" t="n">
-        <v>929.483857538183</v>
+        <v>1087.285527542315</v>
       </c>
       <c r="AD2" t="n">
-        <v>751000.4707948974</v>
+        <v>878500.4026164202</v>
       </c>
       <c r="AE2" t="n">
-        <v>1027551.975944025</v>
+        <v>1202003.007562239</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.76837097148481e-07</v>
+        <v>1.552943654096341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.62673611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>929483.857538183</v>
+        <v>1087285.527542315</v>
       </c>
     </row>
     <row r="3">
@@ -17398,28 +17398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>591.887147273225</v>
+        <v>699.7585756061179</v>
       </c>
       <c r="AB3" t="n">
-        <v>809.8461071172571</v>
+        <v>957.4405543138693</v>
       </c>
       <c r="AC3" t="n">
-        <v>732.5555312801355</v>
+        <v>866.0637715864104</v>
       </c>
       <c r="AD3" t="n">
-        <v>591887.147273225</v>
+        <v>699758.575606118</v>
       </c>
       <c r="AE3" t="n">
-        <v>809846.1071172571</v>
+        <v>957440.5543138692</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.037899471015391e-06</v>
+        <v>1.838197086260328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.80729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>732555.5312801355</v>
+        <v>866063.7715864105</v>
       </c>
     </row>
     <row r="4">
@@ -17504,28 +17504,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>546.4410104342697</v>
+        <v>644.5835278774192</v>
       </c>
       <c r="AB4" t="n">
-        <v>747.664697752143</v>
+        <v>881.9476198601518</v>
       </c>
       <c r="AC4" t="n">
-        <v>676.3086283526716</v>
+        <v>797.7757768419569</v>
       </c>
       <c r="AD4" t="n">
-        <v>546441.0104342698</v>
+        <v>644583.5278774193</v>
       </c>
       <c r="AE4" t="n">
-        <v>747664.6977521429</v>
+        <v>881947.6198601518</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.098727012582367e-06</v>
+        <v>1.945927182281481e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>676308.6283526716</v>
+        <v>797775.7768419569</v>
       </c>
     </row>
     <row r="5">
@@ -17610,28 +17610,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>528.5269742397157</v>
+        <v>616.8553294471013</v>
       </c>
       <c r="AB5" t="n">
-        <v>723.1539231192547</v>
+        <v>844.0086754860109</v>
       </c>
       <c r="AC5" t="n">
-        <v>654.1371276496579</v>
+        <v>763.4576720712413</v>
       </c>
       <c r="AD5" t="n">
-        <v>528526.9742397157</v>
+        <v>616855.3294471013</v>
       </c>
       <c r="AE5" t="n">
-        <v>723153.9231192548</v>
+        <v>844008.675486011</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.12972542435842e-06</v>
+        <v>2.000827672932752e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.11458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>654137.1276496579</v>
+        <v>763457.6720712413</v>
       </c>
     </row>
     <row r="6">
@@ -17716,28 +17716,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>507.6278936514869</v>
+        <v>605.6850702400648</v>
       </c>
       <c r="AB6" t="n">
-        <v>694.5588790560761</v>
+        <v>828.7250340418872</v>
       </c>
       <c r="AC6" t="n">
-        <v>628.2711544584727</v>
+        <v>749.6326799158192</v>
       </c>
       <c r="AD6" t="n">
-        <v>507627.8936514869</v>
+        <v>605685.0702400648</v>
       </c>
       <c r="AE6" t="n">
-        <v>694558.8790560761</v>
+        <v>828725.0340418871</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.146592938952452e-06</v>
+        <v>2.030701294651501e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.83680555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>628271.1544584726</v>
+        <v>749632.6799158192</v>
       </c>
     </row>
     <row r="7">
@@ -17822,28 +17822,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>497.946766428513</v>
+        <v>596.0039430170909</v>
       </c>
       <c r="AB7" t="n">
-        <v>681.3127336884132</v>
+        <v>815.4788886742243</v>
       </c>
       <c r="AC7" t="n">
-        <v>616.2892026136177</v>
+        <v>737.6507280709643</v>
       </c>
       <c r="AD7" t="n">
-        <v>497946.766428513</v>
+        <v>596003.9430170909</v>
       </c>
       <c r="AE7" t="n">
-        <v>681312.7336884133</v>
+        <v>815478.8886742244</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.159355527428468e-06</v>
+        <v>2.053304787190909e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.62847222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>616289.2026136178</v>
+        <v>737650.7280709643</v>
       </c>
     </row>
     <row r="8">
@@ -17928,28 +17928,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>490.7456950398217</v>
+        <v>578.9887093926358</v>
       </c>
       <c r="AB8" t="n">
-        <v>671.4599101255577</v>
+        <v>792.1978953701163</v>
       </c>
       <c r="AC8" t="n">
-        <v>607.3767187030764</v>
+        <v>716.5916400927209</v>
       </c>
       <c r="AD8" t="n">
-        <v>490745.6950398217</v>
+        <v>578988.7093926357</v>
       </c>
       <c r="AE8" t="n">
-        <v>671459.9101255577</v>
+        <v>792197.8953701162</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.170227362056185e-06</v>
+        <v>2.072559614168923e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.45486111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>607376.7187030765</v>
+        <v>716591.640092721</v>
       </c>
     </row>
     <row r="9">
@@ -18034,28 +18034,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>482.0235054666166</v>
+        <v>570.2665198194305</v>
       </c>
       <c r="AB9" t="n">
-        <v>659.525825555652</v>
+        <v>780.2638108002105</v>
       </c>
       <c r="AC9" t="n">
-        <v>596.5816064149296</v>
+        <v>705.7965278045741</v>
       </c>
       <c r="AD9" t="n">
-        <v>482023.5054666166</v>
+        <v>570266.5198194305</v>
       </c>
       <c r="AE9" t="n">
-        <v>659525.825555652</v>
+        <v>780263.8108002106</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.177815255789489e-06</v>
+        <v>2.085998337803464e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>596581.6064149296</v>
+        <v>705796.5278045741</v>
       </c>
     </row>
     <row r="10">
@@ -18140,28 +18140,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>476.631934627571</v>
+        <v>564.8749489803849</v>
       </c>
       <c r="AB10" t="n">
-        <v>652.1488404743517</v>
+        <v>772.8868257189102</v>
       </c>
       <c r="AC10" t="n">
-        <v>589.908670436125</v>
+        <v>699.1235918257695</v>
       </c>
       <c r="AD10" t="n">
-        <v>476631.934627571</v>
+        <v>564874.948980385</v>
       </c>
       <c r="AE10" t="n">
-        <v>652148.8404743517</v>
+        <v>772886.8257189102</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.18301482887231e-06</v>
+        <v>2.095207168097297e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.25520833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>589908.670436125</v>
+        <v>699123.5918257695</v>
       </c>
     </row>
     <row r="11">
@@ -18246,28 +18246,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>470.9520419951119</v>
+        <v>559.1950563479257</v>
       </c>
       <c r="AB11" t="n">
-        <v>644.3773607954431</v>
+        <v>765.1153460400016</v>
       </c>
       <c r="AC11" t="n">
-        <v>582.8788898704313</v>
+        <v>692.0938112600758</v>
       </c>
       <c r="AD11" t="n">
-        <v>470952.0419951119</v>
+        <v>559195.0563479258</v>
       </c>
       <c r="AE11" t="n">
-        <v>644377.3607954431</v>
+        <v>765115.3460400016</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.185801202964539e-06</v>
+        <v>2.100142043661456e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.21180555555556</v>
       </c>
       <c r="AH11" t="n">
-        <v>582878.8898704313</v>
+        <v>692093.8112600758</v>
       </c>
     </row>
     <row r="12">
@@ -18352,28 +18352,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>464.2123327940673</v>
+        <v>552.4553471468813</v>
       </c>
       <c r="AB12" t="n">
-        <v>635.1557933315888</v>
+        <v>755.8937785761475</v>
       </c>
       <c r="AC12" t="n">
-        <v>574.5374158627761</v>
+        <v>683.7523372524206</v>
       </c>
       <c r="AD12" t="n">
-        <v>464212.3327940673</v>
+        <v>552455.3471468813</v>
       </c>
       <c r="AE12" t="n">
-        <v>635155.7933315889</v>
+        <v>755893.7785761475</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.191150046088016e-06</v>
+        <v>2.109615242289082e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.13368055555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>574537.4158627761</v>
+        <v>683752.3372524206</v>
       </c>
     </row>
     <row r="13">
@@ -18458,28 +18458,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>460.3121181384369</v>
+        <v>548.5551324912508</v>
       </c>
       <c r="AB13" t="n">
-        <v>629.8193475744284</v>
+        <v>750.5573328189871</v>
       </c>
       <c r="AC13" t="n">
-        <v>569.7102729989303</v>
+        <v>678.9251943885749</v>
       </c>
       <c r="AD13" t="n">
-        <v>460312.1181384369</v>
+        <v>548555.1324912508</v>
       </c>
       <c r="AE13" t="n">
-        <v>629819.3475744284</v>
+        <v>750557.3328189871</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.193687636779153e-06</v>
+        <v>2.114109503963584e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.09027777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>569710.2729989303</v>
+        <v>678925.1943885749</v>
       </c>
     </row>
     <row r="14">
@@ -18564,28 +18564,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>458.0842514089329</v>
+        <v>546.3272657617468</v>
       </c>
       <c r="AB14" t="n">
-        <v>626.7710820285777</v>
+        <v>747.5090672731362</v>
       </c>
       <c r="AC14" t="n">
-        <v>566.952929638508</v>
+        <v>676.1678510281525</v>
       </c>
       <c r="AD14" t="n">
-        <v>458084.2514089329</v>
+        <v>546327.2657617468</v>
       </c>
       <c r="AE14" t="n">
-        <v>626771.0820285777</v>
+        <v>747509.0672731362</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.193961298520354e-06</v>
+        <v>2.114594179242207e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.09027777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>566952.929638508</v>
+        <v>676167.8510281525</v>
       </c>
     </row>
     <row r="15">
@@ -18670,28 +18670,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>458.8998793035539</v>
+        <v>547.1428936563678</v>
       </c>
       <c r="AB15" t="n">
-        <v>627.8870600969614</v>
+        <v>748.6250453415199</v>
       </c>
       <c r="AC15" t="n">
-        <v>567.9624003263302</v>
+        <v>677.1773217159747</v>
       </c>
       <c r="AD15" t="n">
-        <v>458899.8793035539</v>
+        <v>547142.8936563679</v>
       </c>
       <c r="AE15" t="n">
-        <v>627887.0600969613</v>
+        <v>748625.0453415199</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.193613001758826e-06</v>
+        <v>2.113977319796688e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.09027777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>567962.4003263302</v>
+        <v>677177.3217159747</v>
       </c>
     </row>
   </sheetData>
@@ -18967,28 +18967,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>855.113302653905</v>
+        <v>985.0565433276179</v>
       </c>
       <c r="AB2" t="n">
-        <v>1170.003745627494</v>
+        <v>1347.797820208454</v>
       </c>
       <c r="AC2" t="n">
-        <v>1058.340230255376</v>
+        <v>1219.165887893879</v>
       </c>
       <c r="AD2" t="n">
-        <v>855113.302653905</v>
+        <v>985056.5433276179</v>
       </c>
       <c r="AE2" t="n">
-        <v>1170003.745627494</v>
+        <v>1347797.820208454</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.135672619606967e-07</v>
+        <v>1.418790264813449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.00694444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1058340.230255376</v>
+        <v>1219165.887893879</v>
       </c>
     </row>
     <row r="3">
@@ -19073,28 +19073,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>652.0764492915904</v>
+        <v>761.9299657230802</v>
       </c>
       <c r="AB3" t="n">
-        <v>892.1997655033832</v>
+        <v>1042.506193080051</v>
       </c>
       <c r="AC3" t="n">
-        <v>807.0494720939752</v>
+        <v>943.010865179122</v>
       </c>
       <c r="AD3" t="n">
-        <v>652076.4492915904</v>
+        <v>761929.9657230802</v>
       </c>
       <c r="AE3" t="n">
-        <v>892199.7655033832</v>
+        <v>1042506.193080051</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.875862181908444e-07</v>
+        <v>1.722264129282025e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.42361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>807049.4720939752</v>
+        <v>943010.865179122</v>
       </c>
     </row>
     <row r="4">
@@ -19179,28 +19179,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>599.3153960466238</v>
+        <v>699.2520616388597</v>
       </c>
       <c r="AB4" t="n">
-        <v>820.0097648002284</v>
+        <v>956.7475195580474</v>
       </c>
       <c r="AC4" t="n">
-        <v>741.7491837386273</v>
+        <v>865.436879095004</v>
       </c>
       <c r="AD4" t="n">
-        <v>599315.3960466238</v>
+        <v>699252.0616388597</v>
       </c>
       <c r="AE4" t="n">
-        <v>820009.7648002284</v>
+        <v>956747.5195580474</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.053059662151368e-06</v>
+        <v>1.836444098460145e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.09548611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>741749.1837386272</v>
+        <v>865436.8790950039</v>
       </c>
     </row>
     <row r="5">
@@ -19285,28 +19285,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>569.1185885523381</v>
+        <v>668.9699132900023</v>
       </c>
       <c r="AB5" t="n">
-        <v>778.6931605974214</v>
+        <v>915.3141482330424</v>
       </c>
       <c r="AC5" t="n">
-        <v>704.3757782527176</v>
+        <v>827.9578505771556</v>
       </c>
       <c r="AD5" t="n">
-        <v>569118.5885523381</v>
+        <v>668969.9132900023</v>
       </c>
       <c r="AE5" t="n">
-        <v>778693.1605974215</v>
+        <v>915314.1482330423</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.085625753413937e-06</v>
+        <v>1.893236517976887e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.48784722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>704375.7782527176</v>
+        <v>827957.8505771556</v>
       </c>
     </row>
     <row r="6">
@@ -19391,28 +19391,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>556.6966985982651</v>
+        <v>656.5480233359294</v>
       </c>
       <c r="AB6" t="n">
-        <v>761.6969827471511</v>
+        <v>898.3179703827722</v>
       </c>
       <c r="AC6" t="n">
-        <v>689.0016917621917</v>
+        <v>812.5837640866295</v>
       </c>
       <c r="AD6" t="n">
-        <v>556696.6985982652</v>
+        <v>656548.0233359294</v>
       </c>
       <c r="AE6" t="n">
-        <v>761696.9827471511</v>
+        <v>898317.9703827722</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.105248285948643e-06</v>
+        <v>1.927456501293486e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>689001.6917621917</v>
+        <v>812583.7640866295</v>
       </c>
     </row>
     <row r="7">
@@ -19497,28 +19497,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>534.5546494093169</v>
+        <v>634.4912254930016</v>
       </c>
       <c r="AB7" t="n">
-        <v>731.4012542085635</v>
+        <v>868.1388864968337</v>
       </c>
       <c r="AC7" t="n">
-        <v>661.5973450350049</v>
+        <v>785.284929610155</v>
       </c>
       <c r="AD7" t="n">
-        <v>534554.6494093168</v>
+        <v>634491.2254930016</v>
       </c>
       <c r="AE7" t="n">
-        <v>731401.2542085635</v>
+        <v>868138.8864968338</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.1222138544507e-06</v>
+        <v>1.95704297134113e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>661597.3450350049</v>
+        <v>785284.9296101551</v>
       </c>
     </row>
     <row r="8">
@@ -19603,28 +19603,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>527.6882484045026</v>
+        <v>627.6248244881874</v>
       </c>
       <c r="AB8" t="n">
-        <v>722.0063414295437</v>
+        <v>858.7439737178141</v>
       </c>
       <c r="AC8" t="n">
-        <v>653.0990695457718</v>
+        <v>776.7866541209221</v>
       </c>
       <c r="AD8" t="n">
-        <v>527688.2484045026</v>
+        <v>627624.8244881874</v>
       </c>
       <c r="AE8" t="n">
-        <v>722006.3414295437</v>
+        <v>858743.9737178141</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.132354194245032e-06</v>
+        <v>1.974726838496044e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.68923611111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>653099.0695457718</v>
+        <v>776786.6541209221</v>
       </c>
     </row>
     <row r="9">
@@ -19709,28 +19709,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>520.5978242450143</v>
+        <v>620.534400328699</v>
       </c>
       <c r="AB9" t="n">
-        <v>712.3049102870947</v>
+        <v>849.042542575365</v>
       </c>
       <c r="AC9" t="n">
-        <v>644.323529375514</v>
+        <v>768.0111139506641</v>
       </c>
       <c r="AD9" t="n">
-        <v>520597.8242450143</v>
+        <v>620534.400328699</v>
       </c>
       <c r="AE9" t="n">
-        <v>712304.9102870947</v>
+        <v>849042.542575365</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.140276334709355e-06</v>
+        <v>1.98854235971082e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.55902777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>644323.529375514</v>
+        <v>768011.1139506642</v>
       </c>
     </row>
     <row r="10">
@@ -19815,28 +19815,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>514.7215866250474</v>
+        <v>604.6560605234575</v>
       </c>
       <c r="AB10" t="n">
-        <v>704.2647827341484</v>
+        <v>827.3170975509205</v>
       </c>
       <c r="AC10" t="n">
-        <v>637.0507403118311</v>
+        <v>748.3591149074989</v>
       </c>
       <c r="AD10" t="n">
-        <v>514721.5866250474</v>
+        <v>604656.0605234576</v>
       </c>
       <c r="AE10" t="n">
-        <v>704264.7827341484</v>
+        <v>827317.0975509204</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.1458583967596e-06</v>
+        <v>1.998276988505231e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.46354166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>637050.7403118311</v>
+        <v>748359.1149074989</v>
       </c>
     </row>
     <row r="11">
@@ -19921,28 +19921,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>509.2446298545302</v>
+        <v>599.1791037529405</v>
       </c>
       <c r="AB11" t="n">
-        <v>696.7709688544473</v>
+        <v>819.8232836712192</v>
       </c>
       <c r="AC11" t="n">
-        <v>630.2721255111747</v>
+        <v>741.5805001068427</v>
       </c>
       <c r="AD11" t="n">
-        <v>509244.6298545302</v>
+        <v>599179.1037529404</v>
       </c>
       <c r="AE11" t="n">
-        <v>696770.9688544474</v>
+        <v>819823.2836712193</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.150757935939074e-06</v>
+        <v>2.00682135701037e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>630272.1255111748</v>
+        <v>741580.5001068427</v>
       </c>
     </row>
     <row r="12">
@@ -20027,28 +20027,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>503.6495077239421</v>
+        <v>593.5839816223522</v>
       </c>
       <c r="AB12" t="n">
-        <v>689.1154759160092</v>
+        <v>812.1677907327812</v>
       </c>
       <c r="AC12" t="n">
-        <v>623.3472620742295</v>
+        <v>734.6556366698973</v>
       </c>
       <c r="AD12" t="n">
-        <v>503649.507723942</v>
+        <v>593583.9816223523</v>
       </c>
       <c r="AE12" t="n">
-        <v>689115.4759160093</v>
+        <v>812167.7907327812</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.154584939178762e-06</v>
+        <v>2.013495316489508e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.32465277777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>623347.2620742295</v>
+        <v>734655.6366698972</v>
       </c>
     </row>
     <row r="13">
@@ -20133,28 +20133,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>497.3966565652451</v>
+        <v>587.3311304636553</v>
       </c>
       <c r="AB13" t="n">
-        <v>680.5600491043559</v>
+        <v>803.612363921128</v>
       </c>
       <c r="AC13" t="n">
-        <v>615.6083531898635</v>
+        <v>726.9167277855312</v>
       </c>
       <c r="AD13" t="n">
-        <v>497396.6565652451</v>
+        <v>587331.1304636553</v>
       </c>
       <c r="AE13" t="n">
-        <v>680560.049104356</v>
+        <v>803612.363921128</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.159923243060874e-06</v>
+        <v>2.022804852323465e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.24652777777778</v>
       </c>
       <c r="AH13" t="n">
-        <v>615608.3531898635</v>
+        <v>726916.7277855312</v>
       </c>
     </row>
     <row r="14">
@@ -20239,28 +20239,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>491.9401922316889</v>
+        <v>581.8746661300991</v>
       </c>
       <c r="AB14" t="n">
-        <v>673.0942738809672</v>
+        <v>796.1465886977392</v>
       </c>
       <c r="AC14" t="n">
-        <v>608.8551010755135</v>
+        <v>720.1634756711812</v>
       </c>
       <c r="AD14" t="n">
-        <v>491940.1922316889</v>
+        <v>581874.6661300991</v>
       </c>
       <c r="AE14" t="n">
-        <v>673094.2738809672</v>
+        <v>796146.5886977392</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.16328710578111e-06</v>
+        <v>2.028671135177739e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.18576388888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>608855.1010755135</v>
+        <v>720163.4756711812</v>
       </c>
     </row>
     <row r="15">
@@ -20345,28 +20345,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>488.4187314212192</v>
+        <v>578.3532053196293</v>
       </c>
       <c r="AB15" t="n">
-        <v>668.2760558441961</v>
+        <v>791.3283706609679</v>
       </c>
       <c r="AC15" t="n">
-        <v>604.4967270057602</v>
+        <v>715.8051016014281</v>
       </c>
       <c r="AD15" t="n">
-        <v>488418.7314212192</v>
+        <v>578353.2053196293</v>
       </c>
       <c r="AE15" t="n">
-        <v>668276.0558441961</v>
+        <v>791328.3706609679</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.161946435856379e-06</v>
+        <v>2.026333123895238e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.21180555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>604496.7270057603</v>
+        <v>715805.1016014281</v>
       </c>
     </row>
     <row r="16">
@@ -20451,28 +20451,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>486.6115710926749</v>
+        <v>576.5460449910851</v>
       </c>
       <c r="AB16" t="n">
-        <v>665.8034193563948</v>
+        <v>788.8557341731668</v>
       </c>
       <c r="AC16" t="n">
-        <v>602.2600754739879</v>
+        <v>713.5684500696556</v>
       </c>
       <c r="AD16" t="n">
-        <v>486611.5710926749</v>
+        <v>576546.0449910851</v>
       </c>
       <c r="AE16" t="n">
-        <v>665803.4193563948</v>
+        <v>788855.7341731668</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.165017788774854e-06</v>
+        <v>2.031689295196967e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.15972222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>602260.0754739878</v>
+        <v>713568.4500696555</v>
       </c>
     </row>
     <row r="17">
@@ -20557,28 +20557,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>482.8700702862445</v>
+        <v>572.8045441846547</v>
       </c>
       <c r="AB17" t="n">
-        <v>660.6841328896708</v>
+        <v>783.7364477064428</v>
       </c>
       <c r="AC17" t="n">
-        <v>597.6293665226842</v>
+        <v>708.9377411183519</v>
       </c>
       <c r="AD17" t="n">
-        <v>482870.0702862445</v>
+        <v>572804.5441846547</v>
       </c>
       <c r="AE17" t="n">
-        <v>660684.1328896708</v>
+        <v>783736.4477064428</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.165090916225294e-06</v>
+        <v>2.031816823085103e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.15972222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>597629.3665226842</v>
+        <v>708937.7411183519</v>
       </c>
     </row>
     <row r="18">
@@ -20663,28 +20663,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>482.900368743213</v>
+        <v>572.8348426416233</v>
       </c>
       <c r="AB18" t="n">
-        <v>660.7255885751688</v>
+        <v>783.7779033919408</v>
       </c>
       <c r="AC18" t="n">
-        <v>597.6668657357417</v>
+        <v>708.9752403314095</v>
       </c>
       <c r="AD18" t="n">
-        <v>482900.368743213</v>
+        <v>572834.8426416232</v>
       </c>
       <c r="AE18" t="n">
-        <v>660725.5885751687</v>
+        <v>783777.9033919408</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.167674752807504e-06</v>
+        <v>2.036322808465923e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH18" t="n">
-        <v>597666.8657357417</v>
+        <v>708975.2403314095</v>
       </c>
     </row>
   </sheetData>
@@ -20960,28 +20960,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1061.684092215046</v>
+        <v>1216.660131218214</v>
       </c>
       <c r="AB2" t="n">
-        <v>1452.6430131651</v>
+        <v>1664.688066789541</v>
       </c>
       <c r="AC2" t="n">
-        <v>1314.004802785897</v>
+        <v>1505.812574099523</v>
       </c>
       <c r="AD2" t="n">
-        <v>1061684.092215046</v>
+        <v>1216660.131218215</v>
       </c>
       <c r="AE2" t="n">
-        <v>1452643.0131651</v>
+        <v>1664688.066789541</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.05160722752511e-07</v>
+        <v>1.198726493180118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.96701388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1314004.802785896</v>
+        <v>1505812.574099523</v>
       </c>
     </row>
     <row r="3">
@@ -21066,28 +21066,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>768.1934049434292</v>
+        <v>892.1571679750497</v>
       </c>
       <c r="AB3" t="n">
-        <v>1051.076106944769</v>
+        <v>1220.688796419882</v>
       </c>
       <c r="AC3" t="n">
-        <v>950.7628784925409</v>
+        <v>1104.187970937054</v>
       </c>
       <c r="AD3" t="n">
-        <v>768193.4049434292</v>
+        <v>892157.1679750497</v>
       </c>
       <c r="AE3" t="n">
-        <v>1051076.106944769</v>
+        <v>1220688.796419882</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.960442082448577e-07</v>
+        <v>1.523215767450923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.79513888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>950762.8784925409</v>
+        <v>1104187.970937054</v>
       </c>
     </row>
     <row r="4">
@@ -21172,28 +21172,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>696.3896128974824</v>
+        <v>799.763955644527</v>
       </c>
       <c r="AB4" t="n">
-        <v>952.8309909077691</v>
+        <v>1094.27232720841</v>
       </c>
       <c r="AC4" t="n">
-        <v>861.8941384422257</v>
+        <v>989.8365121204954</v>
       </c>
       <c r="AD4" t="n">
-        <v>696389.6128974824</v>
+        <v>799763.955644527</v>
       </c>
       <c r="AE4" t="n">
-        <v>952830.9909077691</v>
+        <v>1094272.32720841</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.714282446700368e-07</v>
+        <v>1.651363633192777e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.02430555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>861894.1384422256</v>
+        <v>989836.5121204954</v>
       </c>
     </row>
     <row r="5">
@@ -21278,28 +21278,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>655.7165316957525</v>
+        <v>759.0055335882255</v>
       </c>
       <c r="AB5" t="n">
-        <v>897.1802868378597</v>
+        <v>1038.504856016303</v>
       </c>
       <c r="AC5" t="n">
-        <v>811.5546594624948</v>
+        <v>939.3914101088259</v>
       </c>
       <c r="AD5" t="n">
-        <v>655716.5316957524</v>
+        <v>759005.5335882255</v>
       </c>
       <c r="AE5" t="n">
-        <v>897180.2868378598</v>
+        <v>1038504.856016303</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.013308264906248e-06</v>
+        <v>1.722556891938251e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.15625</v>
       </c>
       <c r="AH5" t="n">
-        <v>811554.6594624948</v>
+        <v>939391.4101088259</v>
       </c>
     </row>
     <row r="6">
@@ -21384,28 +21384,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>630.6690425917334</v>
+        <v>734.043295830227</v>
       </c>
       <c r="AB6" t="n">
-        <v>862.9092072285098</v>
+        <v>1004.350421059602</v>
       </c>
       <c r="AC6" t="n">
-        <v>780.554363591299</v>
+        <v>908.496626488342</v>
       </c>
       <c r="AD6" t="n">
-        <v>630669.0425917334</v>
+        <v>734043.295830227</v>
       </c>
       <c r="AE6" t="n">
-        <v>862909.2072285098</v>
+        <v>1004350.421059602</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.034671780846966e-06</v>
+        <v>1.758873453140998e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.73958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>780554.3635912989</v>
+        <v>908496.6264883421</v>
       </c>
     </row>
     <row r="7">
@@ -21490,28 +21490,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>616.5967484701289</v>
+        <v>719.8004095080302</v>
       </c>
       <c r="AB7" t="n">
-        <v>843.6548735855296</v>
+        <v>984.8626756417749</v>
       </c>
       <c r="AC7" t="n">
-        <v>763.1376365275777</v>
+        <v>890.8687641419699</v>
       </c>
       <c r="AD7" t="n">
-        <v>616596.7484701289</v>
+        <v>719800.4095080302</v>
       </c>
       <c r="AE7" t="n">
-        <v>843654.8735855296</v>
+        <v>984862.6756417749</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.054058936282156e-06</v>
+        <v>1.791830332470364e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.375</v>
       </c>
       <c r="AH7" t="n">
-        <v>763137.6365275776</v>
+        <v>890868.7641419698</v>
       </c>
     </row>
     <row r="8">
@@ -21596,28 +21596,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>608.1250947560775</v>
+        <v>711.3287557939788</v>
       </c>
       <c r="AB8" t="n">
-        <v>832.06358323098</v>
+        <v>973.2713852872255</v>
       </c>
       <c r="AC8" t="n">
-        <v>752.6526026559882</v>
+        <v>880.3837302703806</v>
       </c>
       <c r="AD8" t="n">
-        <v>608125.0947560775</v>
+        <v>711328.7557939788</v>
       </c>
       <c r="AE8" t="n">
-        <v>832063.5832309801</v>
+        <v>973271.3852872255</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.065164200075129e-06</v>
+        <v>1.810708544901748e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.17534722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>752652.6026559882</v>
+        <v>880383.7302703806</v>
       </c>
     </row>
     <row r="9">
@@ -21702,28 +21702,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>602.310853291959</v>
+        <v>695.3477707151543</v>
       </c>
       <c r="AB9" t="n">
-        <v>824.1082815535432</v>
+        <v>951.4054964710746</v>
       </c>
       <c r="AC9" t="n">
-        <v>745.4565438053098</v>
+        <v>860.6046911938753</v>
       </c>
       <c r="AD9" t="n">
-        <v>602310.853291959</v>
+        <v>695347.7707151542</v>
       </c>
       <c r="AE9" t="n">
-        <v>824108.2815535432</v>
+        <v>951405.4964710745</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.072904945388451e-06</v>
+        <v>1.823867298905828e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.03645833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>745456.5438053098</v>
+        <v>860604.6911938753</v>
       </c>
     </row>
     <row r="10">
@@ -21808,28 +21808,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>585.0363768815254</v>
+        <v>688.3252892654473</v>
       </c>
       <c r="AB10" t="n">
-        <v>800.4725808326747</v>
+        <v>941.7970275415692</v>
       </c>
       <c r="AC10" t="n">
-        <v>724.0766011883265</v>
+        <v>851.9132410534311</v>
       </c>
       <c r="AD10" t="n">
-        <v>585036.3768815254</v>
+        <v>688325.2892654473</v>
       </c>
       <c r="AE10" t="n">
-        <v>800472.5808326746</v>
+        <v>941797.0275415692</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.081798567663331e-06</v>
+        <v>1.838985867336046e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.88020833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>724076.6011883266</v>
+        <v>851913.2410534311</v>
       </c>
     </row>
     <row r="11">
@@ -21914,28 +21914,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>579.1707906551859</v>
+        <v>682.4597030391078</v>
       </c>
       <c r="AB11" t="n">
-        <v>792.4470269863958</v>
+        <v>933.7714736952905</v>
       </c>
       <c r="AC11" t="n">
-        <v>716.8169949372012</v>
+        <v>844.6536348023058</v>
       </c>
       <c r="AD11" t="n">
-        <v>579170.7906551859</v>
+        <v>682459.7030391078</v>
       </c>
       <c r="AE11" t="n">
-        <v>792447.0269863958</v>
+        <v>933771.4736952905</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.087704121078662e-06</v>
+        <v>1.849024916743414e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.77604166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>716816.9949372013</v>
+        <v>844653.6348023057</v>
       </c>
     </row>
     <row r="12">
@@ -22020,28 +22020,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>573.9849180417987</v>
+        <v>677.2738304257207</v>
       </c>
       <c r="AB12" t="n">
-        <v>785.3514872922065</v>
+        <v>926.675934001101</v>
       </c>
       <c r="AC12" t="n">
-        <v>710.3986435927726</v>
+        <v>838.2352834578771</v>
       </c>
       <c r="AD12" t="n">
-        <v>573984.9180417986</v>
+        <v>677273.8304257207</v>
       </c>
       <c r="AE12" t="n">
-        <v>785351.4872922065</v>
+        <v>926675.9340011011</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.093515562088968e-06</v>
+        <v>1.858903981299668e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.68055555555556</v>
       </c>
       <c r="AH12" t="n">
-        <v>710398.6435927727</v>
+        <v>838235.2834578771</v>
       </c>
     </row>
     <row r="13">
@@ -22126,28 +22126,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>570.9047679139486</v>
+        <v>674.1936802978706</v>
       </c>
       <c r="AB13" t="n">
-        <v>781.1370900006489</v>
+        <v>922.4615367095436</v>
       </c>
       <c r="AC13" t="n">
-        <v>706.5864624637776</v>
+        <v>834.4231023288821</v>
       </c>
       <c r="AD13" t="n">
-        <v>570904.7679139486</v>
+        <v>674193.6802978707</v>
       </c>
       <c r="AE13" t="n">
-        <v>781137.0900006489</v>
+        <v>922461.5367095436</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.095586034999522e-06</v>
+        <v>1.862423648024163e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.64583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>706586.4624637776</v>
+        <v>834423.1023288821</v>
       </c>
     </row>
     <row r="14">
@@ -22232,28 +22232,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>565.6542748692593</v>
+        <v>668.9431872531813</v>
       </c>
       <c r="AB14" t="n">
-        <v>773.9531337814998</v>
+        <v>915.2775804903943</v>
       </c>
       <c r="AC14" t="n">
-        <v>700.0881329434383</v>
+        <v>827.9247728085427</v>
       </c>
       <c r="AD14" t="n">
-        <v>565654.2748692593</v>
+        <v>668943.1872531814</v>
       </c>
       <c r="AE14" t="n">
-        <v>773953.1337814998</v>
+        <v>915277.5804903943</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.099915205630681e-06</v>
+        <v>1.869782951175381e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.56770833333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>700088.1329434382</v>
+        <v>827924.7728085427</v>
       </c>
     </row>
     <row r="15">
@@ -22338,28 +22338,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>563.4092270720429</v>
+        <v>666.6981394559649</v>
       </c>
       <c r="AB15" t="n">
-        <v>770.8813603408296</v>
+        <v>912.2058070497243</v>
       </c>
       <c r="AC15" t="n">
-        <v>697.3095252486846</v>
+        <v>825.146165113789</v>
       </c>
       <c r="AD15" t="n">
-        <v>563409.2270720429</v>
+        <v>666698.1394559649</v>
       </c>
       <c r="AE15" t="n">
-        <v>770881.3603408296</v>
+        <v>912205.8070497243</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.102126847148773e-06</v>
+        <v>1.873542595176546e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.53298611111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>697309.5252486846</v>
+        <v>825146.165113789</v>
       </c>
     </row>
     <row r="16">
@@ -22444,28 +22444,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>559.6613361958407</v>
+        <v>662.7796563791704</v>
       </c>
       <c r="AB16" t="n">
-        <v>765.7533306987339</v>
+        <v>906.8443656327815</v>
       </c>
       <c r="AC16" t="n">
-        <v>692.6709075583957</v>
+        <v>820.296412140849</v>
       </c>
       <c r="AD16" t="n">
-        <v>559661.3361958407</v>
+        <v>662779.6563791705</v>
       </c>
       <c r="AE16" t="n">
-        <v>765753.3306987339</v>
+        <v>906844.3656327815</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.104032623350533e-06</v>
+        <v>1.876782288411593e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.49826388888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>692670.9075583956</v>
+        <v>820296.412140849</v>
       </c>
     </row>
     <row r="17">
@@ -22550,28 +22550,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>554.72216216205</v>
+        <v>647.6737387306737</v>
       </c>
       <c r="AB17" t="n">
-        <v>758.9953348847218</v>
+        <v>886.1757826800554</v>
       </c>
       <c r="AC17" t="n">
-        <v>686.5578853799661</v>
+        <v>801.6004097365928</v>
       </c>
       <c r="AD17" t="n">
-        <v>554722.16216205</v>
+        <v>647673.7387306737</v>
       </c>
       <c r="AE17" t="n">
-        <v>758995.3348847218</v>
+        <v>886175.7826800554</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.108008872462847e-06</v>
+        <v>1.883541648371135e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.42881944444444</v>
       </c>
       <c r="AH17" t="n">
-        <v>686557.8853799661</v>
+        <v>801600.4097365928</v>
       </c>
     </row>
     <row r="18">
@@ -22656,28 +22656,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>549.2466092874681</v>
+        <v>642.1981858560918</v>
       </c>
       <c r="AB18" t="n">
-        <v>751.5034418773747</v>
+        <v>878.6838896727085</v>
       </c>
       <c r="AC18" t="n">
-        <v>679.7810081263025</v>
+        <v>794.8235324829291</v>
       </c>
       <c r="AD18" t="n">
-        <v>549246.6092874681</v>
+        <v>642198.1858560918</v>
       </c>
       <c r="AE18" t="n">
-        <v>751503.4418773747</v>
+        <v>878683.8896727085</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.110902828917372e-06</v>
+        <v>1.888461182542873e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>679781.0081263025</v>
+        <v>794823.5324829291</v>
       </c>
     </row>
     <row r="19">
@@ -22762,28 +22762,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>549.0506729615653</v>
+        <v>642.0022495301889</v>
       </c>
       <c r="AB19" t="n">
-        <v>751.235353152174</v>
+        <v>878.4158009475076</v>
       </c>
       <c r="AC19" t="n">
-        <v>679.53850541277</v>
+        <v>794.5810297693967</v>
       </c>
       <c r="AD19" t="n">
-        <v>549050.6729615653</v>
+        <v>642002.249530189</v>
       </c>
       <c r="AE19" t="n">
-        <v>751235.3531521739</v>
+        <v>878415.8009475076</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.110902828917372e-06</v>
+        <v>1.888461182542873e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18.38541666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>679538.50541277</v>
+        <v>794581.0297693966</v>
       </c>
     </row>
     <row r="20">
@@ -22868,28 +22868,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>543.0069543304294</v>
+        <v>635.9585308990531</v>
       </c>
       <c r="AB20" t="n">
-        <v>742.9660706910056</v>
+        <v>870.1465184863393</v>
       </c>
       <c r="AC20" t="n">
-        <v>672.0584316636847</v>
+        <v>787.1009560203112</v>
       </c>
       <c r="AD20" t="n">
-        <v>543006.9543304294</v>
+        <v>635958.5308990531</v>
       </c>
       <c r="AE20" t="n">
-        <v>742966.0706910056</v>
+        <v>870146.5184863394</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.114055594485716e-06</v>
+        <v>1.893820675055173e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>672058.4316636847</v>
+        <v>787100.9560203112</v>
       </c>
     </row>
     <row r="21">
@@ -22974,28 +22974,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>542.4293097085148</v>
+        <v>635.3808862771385</v>
       </c>
       <c r="AB21" t="n">
-        <v>742.1757118354197</v>
+        <v>869.3561596307536</v>
       </c>
       <c r="AC21" t="n">
-        <v>671.3435035480004</v>
+        <v>786.3860279046271</v>
       </c>
       <c r="AD21" t="n">
-        <v>542429.3097085148</v>
+        <v>635380.8862771385</v>
       </c>
       <c r="AE21" t="n">
-        <v>742175.7118354198</v>
+        <v>869356.1596307536</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.114102650688229e-06</v>
+        <v>1.893900667480729e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>671343.5035480004</v>
+        <v>786386.0279046271</v>
       </c>
     </row>
     <row r="22">
@@ -23080,28 +23080,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>536.6186342398324</v>
+        <v>629.5702108084561</v>
       </c>
       <c r="AB22" t="n">
-        <v>734.2252893102591</v>
+        <v>861.4057371055928</v>
       </c>
       <c r="AC22" t="n">
-        <v>664.1518581901529</v>
+        <v>779.1943825467796</v>
       </c>
       <c r="AD22" t="n">
-        <v>536618.6342398324</v>
+        <v>629570.2108084561</v>
       </c>
       <c r="AE22" t="n">
-        <v>734225.289310259</v>
+        <v>861405.7371055929</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.116408404611346e-06</v>
+        <v>1.897820296333008e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>19</v>
+        <v>18.28993055555556</v>
       </c>
       <c r="AH22" t="n">
-        <v>664151.8581901529</v>
+        <v>779194.3825467796</v>
       </c>
     </row>
     <row r="23">
@@ -23186,28 +23186,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>535.9083818793961</v>
+        <v>628.8599584480196</v>
       </c>
       <c r="AB23" t="n">
-        <v>733.2534906965873</v>
+        <v>860.433938491921</v>
       </c>
       <c r="AC23" t="n">
-        <v>663.272806672242</v>
+        <v>778.3153310288686</v>
       </c>
       <c r="AD23" t="n">
-        <v>535908.381879396</v>
+        <v>628859.9584480196</v>
       </c>
       <c r="AE23" t="n">
-        <v>733253.4906965873</v>
+        <v>860433.9384919211</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.116714269927678e-06</v>
+        <v>1.898340247099127e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>18.28993055555556</v>
       </c>
       <c r="AH23" t="n">
-        <v>663272.806672242</v>
+        <v>778315.3310288687</v>
       </c>
     </row>
     <row r="24">
@@ -23292,28 +23292,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>534.1034570680258</v>
+        <v>627.0550336366495</v>
       </c>
       <c r="AB24" t="n">
-        <v>730.7839129420079</v>
+        <v>857.9643607373416</v>
       </c>
       <c r="AC24" t="n">
-        <v>661.0389219524855</v>
+        <v>776.0814463091122</v>
       </c>
       <c r="AD24" t="n">
-        <v>534103.4570680258</v>
+        <v>627055.0336366495</v>
       </c>
       <c r="AE24" t="n">
-        <v>730783.9129420079</v>
+        <v>857964.3607373416</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.117231888155316e-06</v>
+        <v>1.899220163780251e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>18.28125</v>
       </c>
       <c r="AH24" t="n">
-        <v>661038.9219524855</v>
+        <v>776081.4463091121</v>
       </c>
     </row>
     <row r="25">
@@ -23398,28 +23398,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>534.379036286408</v>
+        <v>627.3306128550316</v>
       </c>
       <c r="AB25" t="n">
-        <v>731.1609725862953</v>
+        <v>858.3414203816292</v>
       </c>
       <c r="AC25" t="n">
-        <v>661.3799955535288</v>
+        <v>776.4225199101553</v>
       </c>
       <c r="AD25" t="n">
-        <v>534379.036286408</v>
+        <v>627330.6128550316</v>
       </c>
       <c r="AE25" t="n">
-        <v>731160.9725862953</v>
+        <v>858341.4203816291</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.116996607142753e-06</v>
+        <v>1.898820201652467e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>18.28125</v>
       </c>
       <c r="AH25" t="n">
-        <v>661379.9955535288</v>
+        <v>776422.5199101553</v>
       </c>
     </row>
     <row r="26">
@@ -23504,28 +23504,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>535.5253150788163</v>
+        <v>628.4768916474401</v>
       </c>
       <c r="AB26" t="n">
-        <v>732.7293618003198</v>
+        <v>859.9098095956535</v>
       </c>
       <c r="AC26" t="n">
-        <v>662.7986999022147</v>
+        <v>777.8412242588415</v>
       </c>
       <c r="AD26" t="n">
-        <v>535525.3150788164</v>
+        <v>628476.89164744</v>
       </c>
       <c r="AE26" t="n">
-        <v>732729.3618003197</v>
+        <v>859909.8095956536</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.116996607142753e-06</v>
+        <v>1.898820201652467e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>18.28125</v>
       </c>
       <c r="AH26" t="n">
-        <v>662798.6999022147</v>
+        <v>777841.2242588415</v>
       </c>
     </row>
   </sheetData>
@@ -23801,28 +23801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>664.4423118392306</v>
+        <v>779.5694759724864</v>
       </c>
       <c r="AB2" t="n">
-        <v>909.1192841844178</v>
+        <v>1066.641349203558</v>
       </c>
       <c r="AC2" t="n">
-        <v>822.3542156587853</v>
+        <v>964.8425958761059</v>
       </c>
       <c r="AD2" t="n">
-        <v>664442.3118392306</v>
+        <v>779569.4759724864</v>
       </c>
       <c r="AE2" t="n">
-        <v>909119.2841844178</v>
+        <v>1066641.349203558</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.44387130024987e-07</v>
+        <v>1.702953475151168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.39409722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>822354.2156587853</v>
+        <v>964842.5958761058</v>
       </c>
     </row>
     <row r="3">
@@ -23907,28 +23907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>542.2640326409303</v>
+        <v>638.2602449064497</v>
       </c>
       <c r="AB3" t="n">
-        <v>741.9495724600411</v>
+        <v>873.2958251357146</v>
       </c>
       <c r="AC3" t="n">
-        <v>671.138946597219</v>
+        <v>789.9496972631498</v>
       </c>
       <c r="AD3" t="n">
-        <v>542264.0326409303</v>
+        <v>638260.2449064497</v>
       </c>
       <c r="AE3" t="n">
-        <v>741949.572460041</v>
+        <v>873295.8251357146</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.093775520573115e-06</v>
+        <v>1.972336094569587e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.19965277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>671138.9465972191</v>
+        <v>789949.6972631498</v>
       </c>
     </row>
     <row r="4">
@@ -24013,28 +24013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>504.7077024305094</v>
+        <v>600.6185738414571</v>
       </c>
       <c r="AB4" t="n">
-        <v>690.5633445977904</v>
+        <v>821.7928301512662</v>
       </c>
       <c r="AC4" t="n">
-        <v>624.6569482011178</v>
+        <v>743.3620758351096</v>
       </c>
       <c r="AD4" t="n">
-        <v>504707.7024305094</v>
+        <v>600618.573841457</v>
       </c>
       <c r="AE4" t="n">
-        <v>690563.3445977904</v>
+        <v>821792.8301512662</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.145701285902504e-06</v>
+        <v>2.065970537168595e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.28819444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>624656.9482011178</v>
+        <v>743362.0758351097</v>
       </c>
     </row>
     <row r="5">
@@ -24119,28 +24119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>479.1559724436102</v>
+        <v>575.1520952005785</v>
       </c>
       <c r="AB5" t="n">
-        <v>655.6023403669461</v>
+        <v>786.9484705730713</v>
       </c>
       <c r="AC5" t="n">
-        <v>593.0325731459878</v>
+        <v>711.8432130306919</v>
       </c>
       <c r="AD5" t="n">
-        <v>479155.9724436102</v>
+        <v>575152.0952005786</v>
       </c>
       <c r="AE5" t="n">
-        <v>655602.3403669461</v>
+        <v>786948.4705730713</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.174235003027133e-06</v>
+        <v>2.117423581361481e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.81944444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>593032.5731459878</v>
+        <v>711843.213030692</v>
       </c>
     </row>
     <row r="6">
@@ -24225,28 +24225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>467.4873120981229</v>
+        <v>563.4834348550911</v>
       </c>
       <c r="AB6" t="n">
-        <v>639.6367644972876</v>
+        <v>770.9828947034126</v>
       </c>
       <c r="AC6" t="n">
-        <v>578.590729429503</v>
+        <v>697.4013693142072</v>
       </c>
       <c r="AD6" t="n">
-        <v>467487.3120981229</v>
+        <v>563483.4348550912</v>
       </c>
       <c r="AE6" t="n">
-        <v>639636.7644972876</v>
+        <v>770982.8947034127</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.191696314309467e-06</v>
+        <v>2.148910457647226e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.54166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>578590.729429503</v>
+        <v>697401.3693142071</v>
       </c>
     </row>
     <row r="7">
@@ -24331,28 +24331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>458.4850671795417</v>
+        <v>544.873133083907</v>
       </c>
       <c r="AB7" t="n">
-        <v>627.3194958486683</v>
+        <v>745.5194587915096</v>
       </c>
       <c r="AC7" t="n">
-        <v>567.4490036133128</v>
+        <v>674.3681279875792</v>
       </c>
       <c r="AD7" t="n">
-        <v>458485.0671795417</v>
+        <v>544873.133083907</v>
       </c>
       <c r="AE7" t="n">
-        <v>627319.4958486684</v>
+        <v>745519.4587915096</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.203786872413123e-06</v>
+        <v>2.170712595017093e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.35069444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>567449.0036133128</v>
+        <v>674368.1279875792</v>
       </c>
     </row>
     <row r="8">
@@ -24437,28 +24437,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>448.7039745474417</v>
+        <v>535.092040451807</v>
       </c>
       <c r="AB8" t="n">
-        <v>613.9365733980769</v>
+        <v>732.1365363409182</v>
       </c>
       <c r="AC8" t="n">
-        <v>555.3433284983563</v>
+        <v>662.2624528726226</v>
       </c>
       <c r="AD8" t="n">
-        <v>448703.9745474417</v>
+        <v>535092.040451807</v>
       </c>
       <c r="AE8" t="n">
-        <v>613936.5733980769</v>
+        <v>732136.5363409182</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.21149937579293e-06</v>
+        <v>2.184620063697239e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.23784722222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>555343.3284983563</v>
+        <v>662262.4528726226</v>
       </c>
     </row>
     <row r="9">
@@ -24543,28 +24543,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>442.775387130174</v>
+        <v>529.1634530345392</v>
       </c>
       <c r="AB9" t="n">
-        <v>605.8248185429536</v>
+        <v>724.0247814857948</v>
       </c>
       <c r="AC9" t="n">
-        <v>548.0057481416865</v>
+        <v>654.9248725159529</v>
       </c>
       <c r="AD9" t="n">
-        <v>442775.387130174</v>
+        <v>529163.4530345392</v>
       </c>
       <c r="AE9" t="n">
-        <v>605824.8185429536</v>
+        <v>724024.7814857948</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.218931887300862e-06</v>
+        <v>2.198022640775137e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH9" t="n">
-        <v>548005.7481416864</v>
+        <v>654924.8725159529</v>
       </c>
     </row>
     <row r="10">
@@ -24649,28 +24649,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>436.1448271987881</v>
+        <v>522.5328931031534</v>
       </c>
       <c r="AB10" t="n">
-        <v>596.7525939251723</v>
+        <v>714.9525568680135</v>
       </c>
       <c r="AC10" t="n">
-        <v>539.7993639084789</v>
+        <v>646.7184882827453</v>
       </c>
       <c r="AD10" t="n">
-        <v>436144.8271987881</v>
+        <v>522532.8931031533</v>
       </c>
       <c r="AE10" t="n">
-        <v>596752.5939251722</v>
+        <v>714952.5568680135</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.22361538770312e-06</v>
+        <v>2.206468100303674e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.05555555555556</v>
       </c>
       <c r="AH10" t="n">
-        <v>539799.3639084789</v>
+        <v>646718.4882827452</v>
       </c>
     </row>
     <row r="11">
@@ -24755,28 +24755,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>432.0877781122489</v>
+        <v>518.4758440166142</v>
       </c>
       <c r="AB11" t="n">
-        <v>591.2015603805958</v>
+        <v>709.401523323437</v>
       </c>
       <c r="AC11" t="n">
-        <v>534.7781132144722</v>
+        <v>641.6972375887385</v>
       </c>
       <c r="AD11" t="n">
-        <v>432087.7781122489</v>
+        <v>518475.8440166142</v>
       </c>
       <c r="AE11" t="n">
-        <v>591201.5603805957</v>
+        <v>709401.523323437</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.226797113519872e-06</v>
+        <v>2.212205504874692e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.01215277777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>534778.1132144722</v>
+        <v>641697.2375887386</v>
       </c>
     </row>
     <row r="12">
@@ -24861,28 +24861,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>434.0746464194303</v>
+        <v>520.4627123237957</v>
       </c>
       <c r="AB12" t="n">
-        <v>593.9200812529248</v>
+        <v>712.1200441957661</v>
       </c>
       <c r="AC12" t="n">
-        <v>537.2371822702144</v>
+        <v>644.1563066444807</v>
       </c>
       <c r="AD12" t="n">
-        <v>434074.6464194303</v>
+        <v>520462.7123237957</v>
       </c>
       <c r="AE12" t="n">
-        <v>593920.0812529247</v>
+        <v>712120.0441957661</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.226237129776124e-06</v>
+        <v>2.211195721670193e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>537237.1822702143</v>
+        <v>644156.3066444807</v>
       </c>
     </row>
   </sheetData>
@@ -25158,28 +25158,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>535.6626239247566</v>
+        <v>637.4315494189954</v>
       </c>
       <c r="AB2" t="n">
-        <v>732.9172338209739</v>
+        <v>872.1619674103149</v>
       </c>
       <c r="AC2" t="n">
-        <v>662.9686416808978</v>
+        <v>788.9240533276832</v>
       </c>
       <c r="AD2" t="n">
-        <v>535662.6239247567</v>
+        <v>637431.5494189954</v>
       </c>
       <c r="AE2" t="n">
-        <v>732917.2338209739</v>
+        <v>872161.9674103149</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.062512705092367e-06</v>
+        <v>1.982309083232259e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.65798611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>662968.6416808978</v>
+        <v>788924.0533276831</v>
       </c>
     </row>
     <row r="3">
@@ -25264,28 +25264,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>455.9896904602924</v>
+        <v>548.3363032544627</v>
       </c>
       <c r="AB3" t="n">
-        <v>623.9052113331404</v>
+        <v>750.2579210031489</v>
       </c>
       <c r="AC3" t="n">
-        <v>564.3605736199685</v>
+        <v>678.6543580162132</v>
       </c>
       <c r="AD3" t="n">
-        <v>455989.6904602924</v>
+        <v>548336.3032544627</v>
       </c>
       <c r="AE3" t="n">
-        <v>623905.2113331404</v>
+        <v>750257.9210031489</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.189437275732878e-06</v>
+        <v>2.219109761530186e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.34895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>564360.5736199685</v>
+        <v>678654.3580162132</v>
       </c>
     </row>
     <row r="4">
@@ -25370,28 +25370,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>425.1960331010982</v>
+        <v>517.627897241289</v>
       </c>
       <c r="AB4" t="n">
-        <v>581.7719708140078</v>
+        <v>708.2413251366658</v>
       </c>
       <c r="AC4" t="n">
-        <v>526.2484704416075</v>
+        <v>640.6477670885645</v>
       </c>
       <c r="AD4" t="n">
-        <v>425196.0331010983</v>
+        <v>517627.897241289</v>
       </c>
       <c r="AE4" t="n">
-        <v>581771.9708140078</v>
+        <v>708241.3251366657</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.234379232539994e-06</v>
+        <v>2.302957087562145e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.64583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>526248.4704416075</v>
+        <v>640647.7670885645</v>
       </c>
     </row>
     <row r="5">
@@ -25476,28 +25476,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>411.2343922847726</v>
+        <v>494.4146254340382</v>
       </c>
       <c r="AB5" t="n">
-        <v>562.6690379049893</v>
+        <v>676.4799025527099</v>
       </c>
       <c r="AC5" t="n">
-        <v>508.968694638291</v>
+        <v>611.9176100985849</v>
       </c>
       <c r="AD5" t="n">
-        <v>411234.3922847726</v>
+        <v>494414.6254340382</v>
       </c>
       <c r="AE5" t="n">
-        <v>562669.0379049893</v>
+        <v>676479.9025527099</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.257128612445897e-06</v>
+        <v>2.345400158792481e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.30729166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>508968.694638291</v>
+        <v>611917.6100985849</v>
       </c>
     </row>
     <row r="6">
@@ -25582,28 +25582,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>400.6381791136541</v>
+        <v>483.8184122629197</v>
       </c>
       <c r="AB6" t="n">
-        <v>548.1708315723324</v>
+        <v>661.9816962200531</v>
       </c>
       <c r="AC6" t="n">
-        <v>495.8541767696625</v>
+        <v>598.8030922299564</v>
       </c>
       <c r="AD6" t="n">
-        <v>400638.1791136541</v>
+        <v>483818.4122629197</v>
       </c>
       <c r="AE6" t="n">
-        <v>548170.8315723324</v>
+        <v>661981.6962200531</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.271658519425425e-06</v>
+        <v>2.372508320837032e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.09895833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>495854.1767696625</v>
+        <v>598803.0922299564</v>
       </c>
     </row>
     <row r="7">
@@ -25688,28 +25688,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>393.2642566374161</v>
+        <v>476.4444897866817</v>
       </c>
       <c r="AB7" t="n">
-        <v>538.0815055258435</v>
+        <v>651.892370173564</v>
       </c>
       <c r="AC7" t="n">
-        <v>486.7277618405924</v>
+        <v>589.6766773008862</v>
       </c>
       <c r="AD7" t="n">
-        <v>393264.2566374161</v>
+        <v>476444.4897866817</v>
       </c>
       <c r="AE7" t="n">
-        <v>538081.5055258435</v>
+        <v>651892.3701735641</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.277279578329914e-06</v>
+        <v>2.382995420022151e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.02083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>486727.7618405924</v>
+        <v>589676.6773008863</v>
       </c>
     </row>
     <row r="8">
@@ -25794,28 +25794,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>383.4796235024118</v>
+        <v>475.8261467880309</v>
       </c>
       <c r="AB8" t="n">
-        <v>524.6937388029822</v>
+        <v>651.0463260034422</v>
       </c>
       <c r="AC8" t="n">
-        <v>474.6177047839124</v>
+        <v>588.9113783989304</v>
       </c>
       <c r="AD8" t="n">
-        <v>383479.6235024118</v>
+        <v>475826.1467880309</v>
       </c>
       <c r="AE8" t="n">
-        <v>524693.7388029823</v>
+        <v>651046.3260034423</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.280063593353363e-06</v>
+        <v>2.388189502165723e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>18</v>
+        <v>17.97743055555556</v>
       </c>
       <c r="AH8" t="n">
-        <v>474617.7047839124</v>
+        <v>588911.3783989304</v>
       </c>
     </row>
   </sheetData>
@@ -48400,28 +48400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>452.9273732043522</v>
+        <v>551.4770814612002</v>
       </c>
       <c r="AB2" t="n">
-        <v>619.7152137636605</v>
+        <v>754.5552723069624</v>
       </c>
       <c r="AC2" t="n">
-        <v>560.5704635378212</v>
+        <v>682.5415761429614</v>
       </c>
       <c r="AD2" t="n">
-        <v>452927.3732043522</v>
+        <v>551477.0814612003</v>
       </c>
       <c r="AE2" t="n">
-        <v>619715.2137636605</v>
+        <v>754555.2723069624</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.159955680391649e-06</v>
+        <v>2.230637788734607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.52951388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>560570.4635378212</v>
+        <v>682541.5761429614</v>
       </c>
     </row>
     <row r="3">
@@ -48506,28 +48506,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>391.63494627212</v>
+        <v>481.2178318824754</v>
       </c>
       <c r="AB3" t="n">
-        <v>535.8522112039452</v>
+        <v>658.42346741402</v>
       </c>
       <c r="AC3" t="n">
-        <v>484.7112282399419</v>
+        <v>595.5844557871656</v>
       </c>
       <c r="AD3" t="n">
-        <v>391634.9462721201</v>
+        <v>481217.8318824754</v>
       </c>
       <c r="AE3" t="n">
-        <v>535852.2112039452</v>
+        <v>658423.46741402</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.266540716782417e-06</v>
+        <v>2.435604766271736e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.80208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>484711.2282399419</v>
+        <v>595584.4557871656</v>
       </c>
     </row>
     <row r="4">
@@ -48612,28 +48612,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>371.8401292748159</v>
+        <v>452.4562817472296</v>
       </c>
       <c r="AB4" t="n">
-        <v>508.7680693025413</v>
+        <v>619.0706456489371</v>
       </c>
       <c r="AC4" t="n">
-        <v>460.2119588287759</v>
+        <v>559.9874120993101</v>
       </c>
       <c r="AD4" t="n">
-        <v>371840.1292748159</v>
+        <v>452456.2817472296</v>
       </c>
       <c r="AE4" t="n">
-        <v>508768.0693025413</v>
+        <v>619070.6456489371</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.3057352656765e-06</v>
+        <v>2.510977337270334e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.23784722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>460211.958828776</v>
+        <v>559987.4120993101</v>
       </c>
     </row>
     <row r="5">
@@ -48718,28 +48718,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>361.5115131018261</v>
+        <v>442.1276655742398</v>
       </c>
       <c r="AB5" t="n">
-        <v>494.6360009882704</v>
+        <v>604.9385773346663</v>
       </c>
       <c r="AC5" t="n">
-        <v>447.4286352799366</v>
+        <v>547.2040885504707</v>
       </c>
       <c r="AD5" t="n">
-        <v>361511.5131018261</v>
+        <v>442127.6655742398</v>
       </c>
       <c r="AE5" t="n">
-        <v>494636.0009882704</v>
+        <v>604938.5773346663</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.319915518845318e-06</v>
+        <v>2.538246489968918e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.03819444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>447428.6352799366</v>
+        <v>547204.0885504708</v>
       </c>
     </row>
     <row r="6">
@@ -48824,28 +48824,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>362.0991835014268</v>
+        <v>442.7153359738405</v>
       </c>
       <c r="AB6" t="n">
-        <v>495.4400775551921</v>
+        <v>605.7426539015881</v>
       </c>
       <c r="AC6" t="n">
-        <v>448.15597190784</v>
+        <v>547.9314251783742</v>
       </c>
       <c r="AD6" t="n">
-        <v>362099.1835014268</v>
+        <v>442715.3359738404</v>
       </c>
       <c r="AE6" t="n">
-        <v>495440.0775551922</v>
+        <v>605742.6539015882</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.321890331665733e-06</v>
+        <v>2.542044128255761e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.01215277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>448155.97190784</v>
+        <v>547931.4251783742</v>
       </c>
     </row>
   </sheetData>
@@ -49121,28 +49121,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>311.2983886216406</v>
+        <v>395.2337152680954</v>
       </c>
       <c r="AB2" t="n">
-        <v>425.9321888277728</v>
+        <v>540.7762057107217</v>
       </c>
       <c r="AC2" t="n">
-        <v>385.281818525631</v>
+        <v>489.1652836218612</v>
       </c>
       <c r="AD2" t="n">
-        <v>311298.3886216406</v>
+        <v>395233.7152680954</v>
       </c>
       <c r="AE2" t="n">
-        <v>425932.1888277729</v>
+        <v>540776.2057107217</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.357176657242632e-06</v>
+        <v>2.799311652198008e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>385281.818525631</v>
+        <v>489165.2836218613</v>
       </c>
     </row>
     <row r="3">
@@ -49227,28 +49227,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>301.0362718126508</v>
+        <v>376.5696212175538</v>
       </c>
       <c r="AB3" t="n">
-        <v>411.8911078770715</v>
+        <v>515.2391688290539</v>
       </c>
       <c r="AC3" t="n">
-        <v>372.5807986340837</v>
+        <v>466.0654656987236</v>
       </c>
       <c r="AD3" t="n">
-        <v>301036.2718126508</v>
+        <v>376569.6212175539</v>
       </c>
       <c r="AE3" t="n">
-        <v>411891.1078770715</v>
+        <v>515239.168829054</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.39150202235358e-06</v>
+        <v>2.870111126981377e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.36805555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>372580.7986340837</v>
+        <v>466065.4656987236</v>
       </c>
     </row>
   </sheetData>
@@ -49524,28 +49524,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>802.5728033123338</v>
+        <v>931.2351487241775</v>
       </c>
       <c r="AB2" t="n">
-        <v>1098.115516505116</v>
+        <v>1274.157013679676</v>
       </c>
       <c r="AC2" t="n">
-        <v>993.3129128246743</v>
+        <v>1152.553256584687</v>
       </c>
       <c r="AD2" t="n">
-        <v>802572.8033123338</v>
+        <v>931235.1487241775</v>
       </c>
       <c r="AE2" t="n">
-        <v>1098115.516505116</v>
+        <v>1274157.013679676</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.442647709197622e-07</v>
+        <v>1.483339898138684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH2" t="n">
-        <v>993312.9128246743</v>
+        <v>1152553.256584687</v>
       </c>
     </row>
     <row r="3">
@@ -49630,28 +49630,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>625.902653018736</v>
+        <v>725.0050022291608</v>
       </c>
       <c r="AB3" t="n">
-        <v>856.3876227364675</v>
+        <v>991.9838290132517</v>
       </c>
       <c r="AC3" t="n">
-        <v>774.655189970076</v>
+        <v>897.3102846302744</v>
       </c>
       <c r="AD3" t="n">
-        <v>625902.653018736</v>
+        <v>725005.0022291609</v>
       </c>
       <c r="AE3" t="n">
-        <v>856387.6227364675</v>
+        <v>991983.8290132517</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.013669194233525e-06</v>
+        <v>1.780976787273268e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.08506944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>774655.189970076</v>
+        <v>897310.2846302744</v>
       </c>
     </row>
     <row r="4">
@@ -49736,28 +49736,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>568.7716566887627</v>
+        <v>677.6134606516807</v>
       </c>
       <c r="AB4" t="n">
-        <v>778.218473116124</v>
+        <v>927.1406310596878</v>
       </c>
       <c r="AC4" t="n">
-        <v>703.9463942784073</v>
+        <v>838.6556304813988</v>
       </c>
       <c r="AD4" t="n">
-        <v>568771.6566887627</v>
+        <v>677613.4606516807</v>
       </c>
       <c r="AE4" t="n">
-        <v>778218.4731161239</v>
+        <v>927140.6310596878</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.074232321882393e-06</v>
+        <v>1.887383813471652e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>703946.3942784073</v>
+        <v>838655.6304813988</v>
       </c>
     </row>
     <row r="5">
@@ -49842,28 +49842,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>548.9495358193167</v>
+        <v>647.8812033205983</v>
       </c>
       <c r="AB5" t="n">
-        <v>751.0969728522934</v>
+        <v>886.459644884682</v>
       </c>
       <c r="AC5" t="n">
-        <v>679.4133319344921</v>
+        <v>801.8571805308129</v>
       </c>
       <c r="AD5" t="n">
-        <v>548949.5358193166</v>
+        <v>647881.2033205982</v>
       </c>
       <c r="AE5" t="n">
-        <v>751096.9728522934</v>
+        <v>886459.644884682</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.107763614507498e-06</v>
+        <v>1.946296971879049e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.28819444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>679413.3319344921</v>
+        <v>801857.1805308129</v>
       </c>
     </row>
     <row r="6">
@@ -49948,28 +49948,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>525.8469546677684</v>
+        <v>624.8638735150706</v>
       </c>
       <c r="AB6" t="n">
-        <v>719.4870021067971</v>
+        <v>854.9663187918353</v>
       </c>
       <c r="AC6" t="n">
-        <v>650.8201724320735</v>
+        <v>773.3695332791067</v>
       </c>
       <c r="AD6" t="n">
-        <v>525846.9546677684</v>
+        <v>624863.8735150706</v>
       </c>
       <c r="AE6" t="n">
-        <v>719487.0021067972</v>
+        <v>854966.3187918353</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.128000562038948e-06</v>
+        <v>1.981852490389241e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.94965277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>650820.1724320735</v>
+        <v>773369.5332791067</v>
       </c>
     </row>
     <row r="7">
@@ -50054,28 +50054,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>517.2203775273537</v>
+        <v>616.237296374656</v>
       </c>
       <c r="AB7" t="n">
-        <v>707.6837386855583</v>
+        <v>843.1630553705962</v>
       </c>
       <c r="AC7" t="n">
-        <v>640.1433959057731</v>
+        <v>762.6927567528065</v>
       </c>
       <c r="AD7" t="n">
-        <v>517220.3775273536</v>
+        <v>616237.296374656</v>
       </c>
       <c r="AE7" t="n">
-        <v>707683.7386855583</v>
+        <v>843163.0553705962</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.140433236617273e-06</v>
+        <v>2.003696209181998e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.74131944444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>640143.3959057732</v>
+        <v>762692.7567528065</v>
       </c>
     </row>
     <row r="8">
@@ -50160,28 +50160,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>508.2667903901337</v>
+        <v>607.283709237436</v>
       </c>
       <c r="AB8" t="n">
-        <v>695.4330457600274</v>
+        <v>830.9123624450654</v>
       </c>
       <c r="AC8" t="n">
-        <v>629.0618919190996</v>
+        <v>751.6112527661328</v>
       </c>
       <c r="AD8" t="n">
-        <v>508266.7903901337</v>
+        <v>607283.7092374361</v>
       </c>
       <c r="AE8" t="n">
-        <v>695433.0457600275</v>
+        <v>830912.3624450654</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.151265665952843e-06</v>
+        <v>2.022728360209351e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.55902777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>629061.8919190996</v>
+        <v>751611.2527661328</v>
       </c>
     </row>
     <row r="9">
@@ -50266,28 +50266,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>502.1581072614347</v>
+        <v>591.2648896471006</v>
       </c>
       <c r="AB9" t="n">
-        <v>687.0748760072619</v>
+        <v>808.9947067811246</v>
       </c>
       <c r="AC9" t="n">
-        <v>621.501414156773</v>
+        <v>731.7853873971355</v>
       </c>
       <c r="AD9" t="n">
-        <v>502158.1072614347</v>
+        <v>591264.8896471006</v>
       </c>
       <c r="AE9" t="n">
-        <v>687074.8760072619</v>
+        <v>808994.7067811246</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.158060553445154e-06</v>
+        <v>2.034666709490145e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.45486111111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>621501.414156773</v>
+        <v>731785.3873971355</v>
       </c>
     </row>
     <row r="10">
@@ -50372,28 +50372,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>496.1803905406272</v>
+        <v>585.2871729262931</v>
       </c>
       <c r="AB10" t="n">
-        <v>678.8959002716036</v>
+        <v>800.8157310454664</v>
       </c>
       <c r="AC10" t="n">
-        <v>614.1030283860614</v>
+        <v>724.3870016264241</v>
       </c>
       <c r="AD10" t="n">
-        <v>496180.3905406272</v>
+        <v>585287.1729262931</v>
       </c>
       <c r="AE10" t="n">
-        <v>678895.9002716036</v>
+        <v>800815.7310454664</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.164510772731335e-06</v>
+        <v>2.04599949032916e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.35069444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>614103.0283860614</v>
+        <v>724387.001626424</v>
       </c>
     </row>
     <row r="11">
@@ -50478,28 +50478,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>489.7511084332142</v>
+        <v>578.85789081888</v>
       </c>
       <c r="AB11" t="n">
-        <v>670.0990728523329</v>
+        <v>792.0189036261957</v>
       </c>
       <c r="AC11" t="n">
-        <v>606.1457578292611</v>
+        <v>716.4297310696237</v>
       </c>
       <c r="AD11" t="n">
-        <v>489751.1084332142</v>
+        <v>578857.8908188801</v>
       </c>
       <c r="AE11" t="n">
-        <v>670099.072852333</v>
+        <v>792018.9036261956</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.169533080877826e-06</v>
+        <v>2.054823487623661e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.27256944444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>606145.7578292611</v>
+        <v>716429.7310696237</v>
       </c>
     </row>
     <row r="12">
@@ -50584,28 +50584,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>486.3723591570607</v>
+        <v>575.4791415427266</v>
       </c>
       <c r="AB12" t="n">
-        <v>665.4761190328016</v>
+        <v>787.3959498066644</v>
       </c>
       <c r="AC12" t="n">
-        <v>601.9640122339096</v>
+        <v>712.2479854742719</v>
       </c>
       <c r="AD12" t="n">
-        <v>486372.3591570607</v>
+        <v>575479.1415427265</v>
       </c>
       <c r="AE12" t="n">
-        <v>665476.1190328016</v>
+        <v>787395.9498066644</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.171650328429779e-06</v>
+        <v>2.058543408051734e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.23784722222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>601964.0122339096</v>
+        <v>712247.9854742719</v>
       </c>
     </row>
     <row r="13">
@@ -50690,28 +50690,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>480.4676317763813</v>
+        <v>569.5744141620472</v>
       </c>
       <c r="AB13" t="n">
-        <v>657.3970105323691</v>
+        <v>779.3168413062319</v>
       </c>
       <c r="AC13" t="n">
-        <v>594.6559625096583</v>
+        <v>704.9399357500209</v>
       </c>
       <c r="AD13" t="n">
-        <v>480467.6317763813</v>
+        <v>569574.4141620472</v>
       </c>
       <c r="AE13" t="n">
-        <v>657397.0105323691</v>
+        <v>779316.8413062319</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.174727723127384e-06</v>
+        <v>2.06395026913905e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.19444444444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>594655.9625096583</v>
+        <v>704939.9357500209</v>
       </c>
     </row>
     <row r="14">
@@ -50796,28 +50796,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>475.4424878860592</v>
+        <v>564.5492702717252</v>
       </c>
       <c r="AB14" t="n">
-        <v>650.5213869679285</v>
+        <v>772.4412177417912</v>
       </c>
       <c r="AC14" t="n">
-        <v>588.4365388082094</v>
+        <v>698.7205120485721</v>
       </c>
       <c r="AD14" t="n">
-        <v>475442.4878860592</v>
+        <v>564549.2702717251</v>
       </c>
       <c r="AE14" t="n">
-        <v>650521.3869679285</v>
+        <v>772441.2177417912</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.177288115515791e-06</v>
+        <v>2.068448777563697e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.15104166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>588436.5388082095</v>
+        <v>698720.5120485721</v>
       </c>
     </row>
     <row r="15">
@@ -50902,28 +50902,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>471.0521975823292</v>
+        <v>560.1589799679952</v>
       </c>
       <c r="AB15" t="n">
-        <v>644.5143980884266</v>
+        <v>766.4342288622894</v>
       </c>
       <c r="AC15" t="n">
-        <v>583.0028485165054</v>
+        <v>693.2868217568679</v>
       </c>
       <c r="AD15" t="n">
-        <v>471052.1975823292</v>
+        <v>560158.9799679952</v>
       </c>
       <c r="AE15" t="n">
-        <v>644514.3980884266</v>
+        <v>766434.2288622893</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.1804886060013e-06</v>
+        <v>2.074071913094506e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.10763888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>583002.8485165054</v>
+        <v>693286.8217568679</v>
       </c>
     </row>
     <row r="16">
@@ -51008,28 +51008,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>471.9223525613552</v>
+        <v>561.0291349470211</v>
       </c>
       <c r="AB16" t="n">
-        <v>645.7049825192582</v>
+        <v>767.6248132931211</v>
       </c>
       <c r="AC16" t="n">
-        <v>584.0798052402542</v>
+        <v>694.3637784806167</v>
       </c>
       <c r="AD16" t="n">
-        <v>471922.3525613552</v>
+        <v>561029.1349470211</v>
       </c>
       <c r="AE16" t="n">
-        <v>645704.9825192583</v>
+        <v>767624.8132931211</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.180217795267911e-06</v>
+        <v>2.073596109318822e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.10763888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>584079.8052402543</v>
+        <v>694363.7784806167</v>
       </c>
     </row>
   </sheetData>
@@ -51305,28 +51305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1012.025117795728</v>
+        <v>1155.550561263525</v>
       </c>
       <c r="AB2" t="n">
-        <v>1384.697413565258</v>
+        <v>1581.075257213581</v>
       </c>
       <c r="AC2" t="n">
-        <v>1252.543835849615</v>
+        <v>1430.179653718177</v>
       </c>
       <c r="AD2" t="n">
-        <v>1012025.117795728</v>
+        <v>1155550.561263525</v>
       </c>
       <c r="AE2" t="n">
-        <v>1384697.413565258</v>
+        <v>1581075.257213581</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.309066672033267e-07</v>
+        <v>1.249768946927793e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.17708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1252543.835849615</v>
+        <v>1430179.653718177</v>
       </c>
     </row>
     <row r="3">
@@ -51411,28 +51411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>738.7104466549092</v>
+        <v>851.4621698054599</v>
       </c>
       <c r="AB3" t="n">
-        <v>1010.736222718095</v>
+        <v>1165.008104587638</v>
       </c>
       <c r="AC3" t="n">
-        <v>914.2729761990774</v>
+        <v>1053.821366184938</v>
       </c>
       <c r="AD3" t="n">
-        <v>738710.4466549092</v>
+        <v>851462.1698054599</v>
       </c>
       <c r="AE3" t="n">
-        <v>1010736.222718095</v>
+        <v>1165008.104587638</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.198904872215582e-07</v>
+        <v>1.57291021834935e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.38715277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>914272.9761990774</v>
+        <v>1053821.366184938</v>
       </c>
     </row>
     <row r="4">
@@ -51517,28 +51517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>663.8615465362642</v>
+        <v>776.6131801782637</v>
       </c>
       <c r="AB4" t="n">
-        <v>908.3246554753422</v>
+        <v>1062.596414875337</v>
       </c>
       <c r="AC4" t="n">
-        <v>821.6354251984355</v>
+        <v>961.1837044030693</v>
       </c>
       <c r="AD4" t="n">
-        <v>663861.5465362642</v>
+        <v>776613.1801782637</v>
       </c>
       <c r="AE4" t="n">
-        <v>908324.6554753422</v>
+        <v>1062596.414875337</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.908721077958176e-07</v>
+        <v>1.6942808791695e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.78125</v>
       </c>
       <c r="AH4" t="n">
-        <v>821635.4251984356</v>
+        <v>961183.7044030693</v>
       </c>
     </row>
     <row r="5">
@@ -51623,28 +51623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>638.633548487525</v>
+        <v>741.12736486566</v>
       </c>
       <c r="AB5" t="n">
-        <v>873.8065955643335</v>
+        <v>1014.04315684095</v>
       </c>
       <c r="AC5" t="n">
-        <v>790.411720478932</v>
+        <v>917.2643011705583</v>
       </c>
       <c r="AD5" t="n">
-        <v>638633.548487525</v>
+        <v>741127.36486566</v>
       </c>
       <c r="AE5" t="n">
-        <v>873806.5955643335</v>
+        <v>1014043.15684095</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.027928689125026e-06</v>
+        <v>1.757643503568254e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.03472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>790411.720478932</v>
+        <v>917264.3011705583</v>
       </c>
     </row>
     <row r="6">
@@ -51729,28 +51729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>611.8246767326808</v>
+        <v>714.4037444568365</v>
       </c>
       <c r="AB6" t="n">
-        <v>837.1255145054066</v>
+        <v>977.4787204346725</v>
       </c>
       <c r="AC6" t="n">
-        <v>757.2314303140487</v>
+        <v>884.1895232563872</v>
       </c>
       <c r="AD6" t="n">
-        <v>611824.6767326808</v>
+        <v>714403.7444568365</v>
       </c>
       <c r="AE6" t="n">
-        <v>837125.5145054066</v>
+        <v>977478.7204346724</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.051486426167219e-06</v>
+        <v>1.797924608579753e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.58333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>757231.4303140487</v>
+        <v>884189.5232563872</v>
       </c>
     </row>
     <row r="7">
@@ -51835,28 +51835,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>599.6045113229486</v>
+        <v>702.012986846512</v>
       </c>
       <c r="AB7" t="n">
-        <v>820.4053450761619</v>
+        <v>960.525139230581</v>
       </c>
       <c r="AC7" t="n">
-        <v>742.1070103882261</v>
+        <v>868.8539680479137</v>
       </c>
       <c r="AD7" t="n">
-        <v>599604.5113229486</v>
+        <v>702012.9868465121</v>
       </c>
       <c r="AE7" t="n">
-        <v>820405.3450761619</v>
+        <v>960525.139230581</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.069635135973137e-06</v>
+        <v>1.828956879812178e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.25347222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>742107.010388226</v>
+        <v>868853.9680479136</v>
       </c>
     </row>
     <row r="8">
@@ -51941,28 +51941,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>591.4155256340567</v>
+        <v>683.736776094348</v>
       </c>
       <c r="AB8" t="n">
-        <v>809.2008135840688</v>
+        <v>935.5188213899565</v>
       </c>
       <c r="AC8" t="n">
-        <v>731.9718236560793</v>
+        <v>846.2342180854108</v>
       </c>
       <c r="AD8" t="n">
-        <v>591415.5256340568</v>
+        <v>683736.7760943479</v>
       </c>
       <c r="AE8" t="n">
-        <v>809200.8135840688</v>
+        <v>935518.8213899565</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.080903942715374e-06</v>
+        <v>1.848225283518585e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.05381944444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>731971.8236560794</v>
+        <v>846234.2180854108</v>
       </c>
     </row>
     <row r="9">
@@ -52047,28 +52047,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>574.287474337915</v>
+        <v>676.7812012074991</v>
       </c>
       <c r="AB9" t="n">
-        <v>785.7654581643948</v>
+        <v>926.001896971463</v>
       </c>
       <c r="AC9" t="n">
-        <v>710.773105665931</v>
+        <v>837.6255755763308</v>
       </c>
       <c r="AD9" t="n">
-        <v>574287.474337915</v>
+        <v>676781.201207499</v>
       </c>
       <c r="AE9" t="n">
-        <v>785765.4581643947</v>
+        <v>926001.896971463</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.088875140747778e-06</v>
+        <v>1.861855143824591e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.91493055555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>710773.105665931</v>
+        <v>837625.5755763308</v>
       </c>
     </row>
     <row r="10">
@@ -52153,28 +52153,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>567.3736189368451</v>
+        <v>669.8673458064292</v>
       </c>
       <c r="AB10" t="n">
-        <v>776.3056161868776</v>
+        <v>916.5420549939458</v>
       </c>
       <c r="AC10" t="n">
-        <v>702.2160977297765</v>
+        <v>829.0685676401764</v>
       </c>
       <c r="AD10" t="n">
-        <v>567373.6189368451</v>
+        <v>669867.3458064292</v>
       </c>
       <c r="AE10" t="n">
-        <v>776305.6161868776</v>
+        <v>916542.0549939459</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.097486881479214e-06</v>
+        <v>1.87658026076233e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.76736111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>702216.0977297765</v>
+        <v>829068.5676401764</v>
       </c>
     </row>
     <row r="11">
@@ -52259,28 +52259,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>561.0651577074602</v>
+        <v>663.5588845770443</v>
       </c>
       <c r="AB11" t="n">
-        <v>767.6741012231658</v>
+        <v>907.9105400302343</v>
       </c>
       <c r="AC11" t="n">
-        <v>694.4083624397942</v>
+        <v>821.2608323501939</v>
       </c>
       <c r="AD11" t="n">
-        <v>561065.1577074602</v>
+        <v>663558.8845770443</v>
       </c>
       <c r="AE11" t="n">
-        <v>767674.1012231659</v>
+        <v>907910.5400302343</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.102967080126491e-06</v>
+        <v>1.885950789722709e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.671875</v>
       </c>
       <c r="AH11" t="n">
-        <v>694408.3624397942</v>
+        <v>821260.832350194</v>
       </c>
     </row>
     <row r="12">
@@ -52365,28 +52365,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>558.3415402870511</v>
+        <v>660.8352671566352</v>
       </c>
       <c r="AB12" t="n">
-        <v>763.9475277110417</v>
+        <v>904.1839665181102</v>
       </c>
       <c r="AC12" t="n">
-        <v>691.0374478733885</v>
+        <v>817.8899177837884</v>
       </c>
       <c r="AD12" t="n">
-        <v>558341.5402870511</v>
+        <v>660835.2671566352</v>
       </c>
       <c r="AE12" t="n">
-        <v>763947.5277110417</v>
+        <v>904183.9665181102</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.105908831781306e-06</v>
+        <v>1.890980857216592e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.61979166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>691037.4478733885</v>
+        <v>817889.9177837884</v>
       </c>
     </row>
     <row r="13">
@@ -52471,28 +52471,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>552.2210917540075</v>
+        <v>654.7148186235916</v>
       </c>
       <c r="AB13" t="n">
-        <v>755.573260012999</v>
+        <v>895.8096988200673</v>
       </c>
       <c r="AC13" t="n">
-        <v>683.4624085310884</v>
+        <v>810.3148784414882</v>
       </c>
       <c r="AD13" t="n">
-        <v>552221.0917540075</v>
+        <v>654714.8186235916</v>
       </c>
       <c r="AE13" t="n">
-        <v>755573.2600129989</v>
+        <v>895809.6988200673</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.111744887483602e-06</v>
+        <v>1.900959862083489e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.52430555555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>683462.4085310884</v>
+        <v>810314.8784414881</v>
       </c>
     </row>
     <row r="14">
@@ -52577,28 +52577,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>548.7920118940565</v>
+        <v>651.1151465630483</v>
       </c>
       <c r="AB14" t="n">
-        <v>750.8814416682874</v>
+        <v>890.8844687005087</v>
       </c>
       <c r="AC14" t="n">
-        <v>679.2183707441876</v>
+        <v>805.8597053719362</v>
       </c>
       <c r="AD14" t="n">
-        <v>548792.0118940565</v>
+        <v>651115.1465630482</v>
       </c>
       <c r="AE14" t="n">
-        <v>750881.4416682874</v>
+        <v>890884.4687005087</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.114568020120078e-06</v>
+        <v>1.905787104275199e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>19</v>
+        <v>18.48090277777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>679218.3707441876</v>
+        <v>805859.7053719362</v>
       </c>
     </row>
     <row r="15">
@@ -52683,28 +52683,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>543.8463412224036</v>
+        <v>636.0822508281231</v>
       </c>
       <c r="AB15" t="n">
-        <v>744.1145568677408</v>
+        <v>870.3157975514307</v>
       </c>
       <c r="AC15" t="n">
-        <v>673.0973079316227</v>
+        <v>787.2540793290152</v>
       </c>
       <c r="AD15" t="n">
-        <v>543846.3412224036</v>
+        <v>636082.2508281231</v>
       </c>
       <c r="AE15" t="n">
-        <v>744114.5568677408</v>
+        <v>870315.7975514308</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.118174038277594e-06</v>
+        <v>1.911952993461249e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>19</v>
+        <v>18.42013888888889</v>
       </c>
       <c r="AH15" t="n">
-        <v>673097.3079316227</v>
+        <v>787254.0793290152</v>
       </c>
     </row>
     <row r="16">
@@ -52789,28 +52789,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>538.9347348215211</v>
+        <v>631.1706444272406</v>
       </c>
       <c r="AB16" t="n">
-        <v>737.3942803052718</v>
+        <v>863.5955209889619</v>
       </c>
       <c r="AC16" t="n">
-        <v>667.0184051323083</v>
+        <v>781.1751765297008</v>
       </c>
       <c r="AD16" t="n">
-        <v>538934.7348215211</v>
+        <v>631170.6444272406</v>
       </c>
       <c r="AE16" t="n">
-        <v>737394.2803052717</v>
+        <v>863595.5209889619</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.121234408950749e-06</v>
+        <v>1.917185886257306e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>19</v>
+        <v>18.36805555555556</v>
       </c>
       <c r="AH16" t="n">
-        <v>667018.4051323084</v>
+        <v>781175.1765297009</v>
       </c>
     </row>
     <row r="17">
@@ -52895,28 +52895,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>536.2917090545697</v>
+        <v>628.5276186602892</v>
       </c>
       <c r="AB17" t="n">
-        <v>733.7779758488614</v>
+        <v>859.9792165325515</v>
       </c>
       <c r="AC17" t="n">
-        <v>663.7472356977026</v>
+        <v>777.9040070950952</v>
       </c>
       <c r="AD17" t="n">
-        <v>536291.7090545696</v>
+        <v>628527.6186602892</v>
       </c>
       <c r="AE17" t="n">
-        <v>733777.9758488614</v>
+        <v>859979.2165325515</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.120949723306734e-06</v>
+        <v>1.916699105532091e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>18.36805555555556</v>
       </c>
       <c r="AH17" t="n">
-        <v>663747.2356977026</v>
+        <v>777904.0070950951</v>
       </c>
     </row>
     <row r="18">
@@ -53001,28 +53001,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>534.2515159794448</v>
+        <v>626.4874255851643</v>
       </c>
       <c r="AB18" t="n">
-        <v>730.9864936765093</v>
+        <v>857.1877343601994</v>
       </c>
       <c r="AC18" t="n">
-        <v>661.22216866601</v>
+        <v>775.3789400634025</v>
       </c>
       <c r="AD18" t="n">
-        <v>534251.5159794447</v>
+        <v>626487.4255851642</v>
       </c>
       <c r="AE18" t="n">
-        <v>730986.4936765094</v>
+        <v>857187.7343601994</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.123535617906532e-06</v>
+        <v>1.921120697119456e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>661222.16866601</v>
+        <v>775378.9400634025</v>
       </c>
     </row>
     <row r="19">
@@ -53107,28 +53107,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>527.35378352435</v>
+        <v>619.5896931300697</v>
       </c>
       <c r="AB19" t="n">
-        <v>721.5487118249697</v>
+        <v>847.7499525086598</v>
       </c>
       <c r="AC19" t="n">
-        <v>652.6851154683715</v>
+        <v>766.8418868657639</v>
       </c>
       <c r="AD19" t="n">
-        <v>527353.78352435</v>
+        <v>619589.6931300696</v>
       </c>
       <c r="AE19" t="n">
-        <v>721548.7118249697</v>
+        <v>847749.9525086598</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.12678577900903e-06</v>
+        <v>1.926678110398988e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>19</v>
+        <v>18.27256944444444</v>
       </c>
       <c r="AH19" t="n">
-        <v>652685.1154683714</v>
+        <v>766841.8868657638</v>
       </c>
     </row>
     <row r="20">
@@ -53213,28 +53213,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>526.7532090847902</v>
+        <v>618.9891186905097</v>
       </c>
       <c r="AB20" t="n">
-        <v>720.7269793812897</v>
+        <v>846.9282200649798</v>
       </c>
       <c r="AC20" t="n">
-        <v>651.9418080158074</v>
+        <v>766.0985794131998</v>
       </c>
       <c r="AD20" t="n">
-        <v>526753.2090847902</v>
+        <v>618989.1186905097</v>
       </c>
       <c r="AE20" t="n">
-        <v>720726.9793812897</v>
+        <v>846928.2200649797</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.126880674223701e-06</v>
+        <v>1.926840370640727e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>18.27256944444444</v>
       </c>
       <c r="AH20" t="n">
-        <v>651941.8080158074</v>
+        <v>766098.5794131998</v>
       </c>
     </row>
     <row r="21">
@@ -53319,28 +53319,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>523.0992884763102</v>
+        <v>615.3351980820297</v>
       </c>
       <c r="AB21" t="n">
-        <v>715.727524005167</v>
+        <v>841.928764688857</v>
       </c>
       <c r="AC21" t="n">
-        <v>647.4194936440022</v>
+        <v>761.5762650413947</v>
       </c>
       <c r="AD21" t="n">
-        <v>523099.2884763102</v>
+        <v>615335.1980820297</v>
       </c>
       <c r="AE21" t="n">
-        <v>715727.524005167</v>
+        <v>841928.764688857</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.125907998273319e-06</v>
+        <v>1.92517720316291e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>19</v>
+        <v>18.28993055555556</v>
       </c>
       <c r="AH21" t="n">
-        <v>647419.4936440021</v>
+        <v>761576.2650413946</v>
       </c>
     </row>
     <row r="22">
@@ -53425,28 +53425,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>521.8811329619435</v>
+        <v>614.1170425676631</v>
       </c>
       <c r="AB22" t="n">
-        <v>714.060789889182</v>
+        <v>840.2620305728722</v>
       </c>
       <c r="AC22" t="n">
-        <v>645.9118302927709</v>
+        <v>760.0686016901634</v>
       </c>
       <c r="AD22" t="n">
-        <v>521881.1329619435</v>
+        <v>614117.0425676631</v>
       </c>
       <c r="AE22" t="n">
-        <v>714060.7898891821</v>
+        <v>840262.0305728721</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.129490292627167e-06</v>
+        <v>1.931302527288526e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>645911.8302927709</v>
+        <v>760068.6016901634</v>
       </c>
     </row>
     <row r="23">
@@ -53531,28 +53531,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>522.8888784915563</v>
+        <v>615.1247880972758</v>
       </c>
       <c r="AB23" t="n">
-        <v>715.4396317813934</v>
+        <v>841.6408724650834</v>
       </c>
       <c r="AC23" t="n">
-        <v>647.1590774500061</v>
+        <v>761.3158488473986</v>
       </c>
       <c r="AD23" t="n">
-        <v>522888.8784915563</v>
+        <v>615124.7880972758</v>
       </c>
       <c r="AE23" t="n">
-        <v>715439.6317813933</v>
+        <v>841640.8724650834</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.129205606983152e-06</v>
+        <v>1.930815746563312e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>18.23784722222222</v>
       </c>
       <c r="AH23" t="n">
-        <v>647159.077450006</v>
+        <v>761315.8488473985</v>
       </c>
     </row>
     <row r="24">
@@ -53637,28 +53637,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>523.8265392172499</v>
+        <v>616.0624488229694</v>
       </c>
       <c r="AB24" t="n">
-        <v>716.7225805529589</v>
+        <v>842.923821236649</v>
       </c>
       <c r="AC24" t="n">
-        <v>648.3195833914435</v>
+        <v>762.4763547888361</v>
       </c>
       <c r="AD24" t="n">
-        <v>523826.5392172498</v>
+        <v>616062.4488229693</v>
       </c>
       <c r="AE24" t="n">
-        <v>716722.5805529589</v>
+        <v>842923.8212366491</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.129442845019831e-06</v>
+        <v>1.931221397167657e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>19</v>
+        <v>18.22916666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>648319.5833914435</v>
+        <v>762476.3547888361</v>
       </c>
     </row>
   </sheetData>
@@ -53934,28 +53934,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.6878668225316</v>
+        <v>350.9818106354325</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.9988371755693</v>
+        <v>480.2287975360634</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.7821060486528</v>
+        <v>434.3964351045711</v>
       </c>
       <c r="AD2" t="n">
-        <v>269687.8668225316</v>
+        <v>350981.8106354325</v>
       </c>
       <c r="AE2" t="n">
-        <v>368998.8371755693</v>
+        <v>480228.7975360634</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.401305110245795e-06</v>
+        <v>3.003642279024056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.88020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>333782.1060486528</v>
+        <v>434396.4351045712</v>
       </c>
     </row>
   </sheetData>
@@ -54231,28 +54231,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>580.022060046517</v>
+        <v>683.0974924263699</v>
       </c>
       <c r="AB2" t="n">
-        <v>793.6117713229701</v>
+        <v>934.644125272224</v>
       </c>
       <c r="AC2" t="n">
-        <v>717.8705777090216</v>
+        <v>845.4430017375111</v>
       </c>
       <c r="AD2" t="n">
-        <v>580022.0600465171</v>
+        <v>683097.4924263698</v>
       </c>
       <c r="AE2" t="n">
-        <v>793611.77132297</v>
+        <v>934644.125272224</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.022204145658026e-06</v>
+        <v>1.883342175478562e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>717870.5777090216</v>
+        <v>845443.001737511</v>
       </c>
     </row>
     <row r="3">
@@ -54337,28 +54337,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>481.5226208861063</v>
+        <v>575.3050606369004</v>
       </c>
       <c r="AB3" t="n">
-        <v>658.8404931751296</v>
+        <v>787.1577646314055</v>
       </c>
       <c r="AC3" t="n">
-        <v>595.9616811949343</v>
+        <v>712.0325323578447</v>
       </c>
       <c r="AD3" t="n">
-        <v>481522.6208861063</v>
+        <v>575305.0606369004</v>
       </c>
       <c r="AE3" t="n">
-        <v>658840.4931751296</v>
+        <v>787157.7646314055</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.156423471789592e-06</v>
+        <v>2.130632228783098e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>595961.6811949343</v>
+        <v>712032.5323578448</v>
       </c>
     </row>
     <row r="4">
@@ -54443,28 +54443,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>449.0742360539206</v>
+        <v>542.7713349501428</v>
       </c>
       <c r="AB4" t="n">
-        <v>614.443181526026</v>
+        <v>742.643685860104</v>
       </c>
       <c r="AC4" t="n">
-        <v>555.8015866576028</v>
+        <v>671.7668147885745</v>
       </c>
       <c r="AD4" t="n">
-        <v>449074.2360539206</v>
+        <v>542771.3349501428</v>
       </c>
       <c r="AE4" t="n">
-        <v>614443.181526026</v>
+        <v>742643.685860104</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.203218646619578e-06</v>
+        <v>2.216849181375745e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.85416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>555801.5866576028</v>
+        <v>671766.8147885745</v>
       </c>
     </row>
     <row r="5">
@@ -54549,28 +54549,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>436.0733315623821</v>
+        <v>529.7704304586044</v>
       </c>
       <c r="AB5" t="n">
-        <v>596.6547704412768</v>
+        <v>724.8552747753549</v>
       </c>
       <c r="AC5" t="n">
-        <v>539.7108765605903</v>
+        <v>655.676104691562</v>
       </c>
       <c r="AD5" t="n">
-        <v>436073.3315623821</v>
+        <v>529770.4304586045</v>
       </c>
       <c r="AE5" t="n">
-        <v>596654.7704412768</v>
+        <v>724855.2747753549</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.225505795770877e-06</v>
+        <v>2.257911750086815e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.50694444444444</v>
       </c>
       <c r="AH5" t="n">
-        <v>539710.8765605903</v>
+        <v>655676.104691562</v>
       </c>
     </row>
     <row r="6">
@@ -54655,28 +54655,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>424.8255656701984</v>
+        <v>509.1445100998924</v>
       </c>
       <c r="AB6" t="n">
-        <v>581.2650809311812</v>
+        <v>696.6339805891802</v>
       </c>
       <c r="AC6" t="n">
-        <v>525.7899574177734</v>
+        <v>630.1482112136805</v>
       </c>
       <c r="AD6" t="n">
-        <v>424825.5656701985</v>
+        <v>509144.5100998924</v>
       </c>
       <c r="AE6" t="n">
-        <v>581265.0809311812</v>
+        <v>696633.9805891801</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.242619609011324e-06</v>
+        <v>2.289442796400709e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.25520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>525789.9574177734</v>
+        <v>630148.2112136804</v>
       </c>
     </row>
     <row r="7">
@@ -54761,28 +54761,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>414.5377701883854</v>
+        <v>498.8567146180794</v>
       </c>
       <c r="AB7" t="n">
-        <v>567.1888652874601</v>
+        <v>682.5577649454589</v>
       </c>
       <c r="AC7" t="n">
-        <v>513.0571560389963</v>
+        <v>617.4154098349034</v>
       </c>
       <c r="AD7" t="n">
-        <v>414537.7701883854</v>
+        <v>498856.7146180794</v>
       </c>
       <c r="AE7" t="n">
-        <v>567188.86528746</v>
+        <v>682557.7649454589</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.253096920628758e-06</v>
+        <v>2.308746536205093e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.09895833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>513057.1560389962</v>
+        <v>617415.4098349033</v>
       </c>
     </row>
     <row r="8">
@@ -54867,28 +54867,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>406.8469619382444</v>
+        <v>491.1659063679384</v>
       </c>
       <c r="AB8" t="n">
-        <v>556.6659621451034</v>
+        <v>672.0348618031023</v>
       </c>
       <c r="AC8" t="n">
-        <v>503.5385440035589</v>
+        <v>607.896797799466</v>
       </c>
       <c r="AD8" t="n">
-        <v>406846.9619382444</v>
+        <v>491165.9063679384</v>
       </c>
       <c r="AE8" t="n">
-        <v>556665.9621451035</v>
+        <v>672034.8618031023</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.259419886742023e-06</v>
+        <v>2.320396174690531e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.01215277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>503538.5440035589</v>
+        <v>607896.7977994659</v>
       </c>
     </row>
     <row r="9">
@@ -54973,28 +54973,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>407.2316781566284</v>
+        <v>491.5506225863224</v>
       </c>
       <c r="AB9" t="n">
-        <v>557.1923478475782</v>
+        <v>672.5612475055771</v>
       </c>
       <c r="AC9" t="n">
-        <v>504.0146921933763</v>
+        <v>608.3729459892835</v>
       </c>
       <c r="AD9" t="n">
-        <v>407231.6781566284</v>
+        <v>491550.6225863224</v>
       </c>
       <c r="AE9" t="n">
-        <v>557192.3478475781</v>
+        <v>672561.247505577</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.259289246946294e-06</v>
+        <v>2.320155479680502e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.01215277777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>504014.6921933763</v>
+        <v>608372.9459892835</v>
       </c>
     </row>
   </sheetData>
@@ -55270,28 +55270,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>712.8464423157465</v>
+        <v>829.3263618605545</v>
       </c>
       <c r="AB2" t="n">
-        <v>975.3479509419117</v>
+        <v>1134.720915594494</v>
       </c>
       <c r="AC2" t="n">
-        <v>882.2621114134615</v>
+        <v>1026.424744000963</v>
       </c>
       <c r="AD2" t="n">
-        <v>712846.4423157464</v>
+        <v>829326.3618605544</v>
       </c>
       <c r="AE2" t="n">
-        <v>975347.9509419117</v>
+        <v>1134720.915594494</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.088978607268388e-07</v>
+        <v>1.623679698385404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.02777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>882262.1114134615</v>
+        <v>1026424.744000963</v>
       </c>
     </row>
     <row r="3">
@@ -55376,28 +55376,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>566.7978058017666</v>
+        <v>673.3932793965289</v>
       </c>
       <c r="AB3" t="n">
-        <v>775.5177632523804</v>
+        <v>921.366392885132</v>
       </c>
       <c r="AC3" t="n">
-        <v>701.5034363735894</v>
+        <v>833.4324774940284</v>
       </c>
       <c r="AD3" t="n">
-        <v>566797.8058017666</v>
+        <v>673393.2793965288</v>
       </c>
       <c r="AE3" t="n">
-        <v>775517.7632523804</v>
+        <v>921366.392885132</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.065743178089542e-06</v>
+        <v>1.903872411552296e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.48611111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>701503.4363735893</v>
+        <v>833432.4774940284</v>
       </c>
     </row>
     <row r="4">
@@ -55482,28 +55482,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>525.407209117511</v>
+        <v>622.3742593259427</v>
       </c>
       <c r="AB4" t="n">
-        <v>718.8853228447308</v>
+        <v>851.5599188242441</v>
       </c>
       <c r="AC4" t="n">
-        <v>650.2759165943165</v>
+        <v>770.2882353435098</v>
       </c>
       <c r="AD4" t="n">
-        <v>525407.2091175111</v>
+        <v>622374.2593259427</v>
       </c>
       <c r="AE4" t="n">
-        <v>718885.3228447308</v>
+        <v>851559.9188242441</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.122469110832589e-06</v>
+        <v>2.005209150636714e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>650275.9165943165</v>
+        <v>770288.2353435098</v>
       </c>
     </row>
     <row r="5">
@@ -55588,28 +55588,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>499.1293673262376</v>
+        <v>596.1816688806898</v>
       </c>
       <c r="AB5" t="n">
-        <v>682.9308204093496</v>
+        <v>815.7220610415122</v>
       </c>
       <c r="AC5" t="n">
-        <v>617.7528614089069</v>
+        <v>737.8706924088127</v>
       </c>
       <c r="AD5" t="n">
-        <v>499129.3673262376</v>
+        <v>596181.6688806898</v>
       </c>
       <c r="AE5" t="n">
-        <v>682930.8204093496</v>
+        <v>815722.0610415122</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.150316386906448e-06</v>
+        <v>2.054956277096337e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>18.984375</v>
       </c>
       <c r="AH5" t="n">
-        <v>617752.861408907</v>
+        <v>737870.6924088127</v>
       </c>
     </row>
     <row r="6">
@@ -55694,28 +55694,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>487.5220659520131</v>
+        <v>584.5743675064654</v>
       </c>
       <c r="AB6" t="n">
-        <v>667.0491985911399</v>
+        <v>799.8404392233023</v>
       </c>
       <c r="AC6" t="n">
-        <v>603.3869592870309</v>
+        <v>723.5047902869366</v>
       </c>
       <c r="AD6" t="n">
-        <v>487522.0659520131</v>
+        <v>584574.3675064654</v>
       </c>
       <c r="AE6" t="n">
-        <v>667049.1985911399</v>
+        <v>799840.4392233023</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.169686217599196e-06</v>
+        <v>2.089559066051992e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>19</v>
+        <v>18.671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>603386.9592870309</v>
+        <v>723504.7902869366</v>
       </c>
     </row>
     <row r="7">
@@ -55800,28 +55800,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>479.1436318977403</v>
+        <v>576.0253412516003</v>
       </c>
       <c r="AB7" t="n">
-        <v>655.5854554876604</v>
+        <v>788.1432843449759</v>
       </c>
       <c r="AC7" t="n">
-        <v>593.0172997358831</v>
+        <v>712.9239954531376</v>
       </c>
       <c r="AD7" t="n">
-        <v>479143.6318977403</v>
+        <v>576025.3412516003</v>
       </c>
       <c r="AE7" t="n">
-        <v>655585.4554876604</v>
+        <v>788143.2843449758</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.181584827881884e-06</v>
+        <v>2.110815064981893e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>18.48090277777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>593017.299735883</v>
+        <v>712923.9954531377</v>
       </c>
     </row>
     <row r="8">
@@ -55906,28 +55906,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>470.8208775052807</v>
+        <v>558.1595043273816</v>
       </c>
       <c r="AB8" t="n">
-        <v>644.1978957538872</v>
+        <v>763.6984580801621</v>
       </c>
       <c r="AC8" t="n">
-        <v>582.7165527205607</v>
+        <v>690.8121490985085</v>
       </c>
       <c r="AD8" t="n">
-        <v>470820.8775052808</v>
+        <v>558159.5043273816</v>
       </c>
       <c r="AE8" t="n">
-        <v>644197.8957538872</v>
+        <v>763698.4580801622</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.190037117638719e-06</v>
+        <v>2.125914463798907e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>18.35069444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>582716.5527205607</v>
+        <v>690812.1490985085</v>
       </c>
     </row>
     <row r="9">
@@ -56012,28 +56012,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>463.5815242477079</v>
+        <v>550.9201510698088</v>
       </c>
       <c r="AB9" t="n">
-        <v>634.2926932491509</v>
+        <v>753.793255575426</v>
       </c>
       <c r="AC9" t="n">
-        <v>573.7566888408375</v>
+        <v>681.8522852187853</v>
       </c>
       <c r="AD9" t="n">
-        <v>463581.5242477079</v>
+        <v>550920.1510698088</v>
       </c>
       <c r="AE9" t="n">
-        <v>634292.693249151</v>
+        <v>753793.2555754259</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.198464251771278e-06</v>
+        <v>2.140968923928964e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>18.22048611111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>573756.6888408375</v>
+        <v>681852.2852187853</v>
       </c>
     </row>
     <row r="10">
@@ -56118,28 +56118,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>456.9766377186667</v>
+        <v>544.3152645407675</v>
       </c>
       <c r="AB10" t="n">
-        <v>625.2555961130882</v>
+        <v>744.7561584393632</v>
       </c>
       <c r="AC10" t="n">
-        <v>565.5820795717949</v>
+        <v>673.6776759497428</v>
       </c>
       <c r="AD10" t="n">
-        <v>456976.6377186667</v>
+        <v>544315.2645407675</v>
       </c>
       <c r="AE10" t="n">
-        <v>625255.5961130882</v>
+        <v>744756.1584393631</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.203243820383774e-06</v>
+        <v>2.14950727445049e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>18.15104166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>565582.079571795</v>
+        <v>673677.6759497428</v>
       </c>
     </row>
     <row r="11">
@@ -56224,28 +56224,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>451.2507917106028</v>
+        <v>538.5894185327037</v>
       </c>
       <c r="AB11" t="n">
-        <v>617.4212409983575</v>
+        <v>736.9218033246324</v>
       </c>
       <c r="AC11" t="n">
-        <v>558.4954243136276</v>
+        <v>666.5910206915755</v>
       </c>
       <c r="AD11" t="n">
-        <v>451250.7917106028</v>
+        <v>538589.4185327037</v>
       </c>
       <c r="AE11" t="n">
-        <v>617421.2409983574</v>
+        <v>736921.8033246323</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.205432359695812e-06</v>
+        <v>2.153416940215609e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>19</v>
+        <v>18.11631944444444</v>
       </c>
       <c r="AH11" t="n">
-        <v>558495.4243136276</v>
+        <v>666591.0206915755</v>
       </c>
     </row>
     <row r="12">
@@ -56330,28 +56330,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>447.3029938452897</v>
+        <v>534.6416206673905</v>
       </c>
       <c r="AB12" t="n">
-        <v>612.0196897944861</v>
+        <v>731.5202521207609</v>
       </c>
       <c r="AC12" t="n">
-        <v>553.609389575529</v>
+        <v>661.7049859534768</v>
       </c>
       <c r="AD12" t="n">
-        <v>447302.9938452897</v>
+        <v>534641.6206673905</v>
       </c>
       <c r="AE12" t="n">
-        <v>612019.6897944862</v>
+        <v>731520.252120761</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.207570587759297e-06</v>
+        <v>2.157236728606817e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.08159722222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>553609.389575529</v>
+        <v>661704.9859534769</v>
       </c>
     </row>
     <row r="13">
@@ -56436,28 +56436,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>445.5958522713913</v>
+        <v>532.9344790934922</v>
       </c>
       <c r="AB13" t="n">
-        <v>609.6839033793075</v>
+        <v>729.1844657055824</v>
       </c>
       <c r="AC13" t="n">
-        <v>551.4965273375183</v>
+        <v>659.5921237154661</v>
       </c>
       <c r="AD13" t="n">
-        <v>445595.8522713913</v>
+        <v>532934.4790934921</v>
       </c>
       <c r="AE13" t="n">
-        <v>609683.9033793075</v>
+        <v>729184.4657055824</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.210513795799624e-06</v>
+        <v>2.162494554980599e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.03819444444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>551496.5273375183</v>
+        <v>659592.1237154661</v>
       </c>
     </row>
   </sheetData>
